--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-SeriesDeTiempo.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-SeriesDeTiempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA dev\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEE48BC-4280-48ED-9723-8A20BA2EDF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B69EB-EFC1-4CCE-A405-55DD367BE32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{28A30C67-605A-4F02-AD05-70F6C6E51D35}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14558" windowHeight="15563" firstSheet="4" activeTab="6" xr2:uid="{28A30C67-605A-4F02-AD05-70F6C6E51D35}"/>
   </bookViews>
   <sheets>
     <sheet name="LEER PRIMERO" sheetId="16" r:id="rId1"/>
@@ -982,7 +982,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>[1] Hodrick-Prescott</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1011,18 +1011,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="168"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4952,14 +4940,14 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="101.453125" customWidth="1"/>
-    <col min="2" max="16383" width="11.54296875" hidden="1"/>
+    <col min="1" max="1" width="101.46484375" customWidth="1"/>
+    <col min="2" max="16383" width="11.53125" hidden="1"/>
     <col min="16384" max="16384" width="25" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="209.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="209.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -4976,9 +4964,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="e" cm="1">
         <f t="array" ref="A1">_xll.R.GR_Graficos.D()</f>
         <v>#VALUE!</v>
@@ -4996,12 +4984,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="e" cm="1">
         <f t="array" ref="A1">_xll.R.UT_Referencias()</f>
         <v>#VALUE!</v>
@@ -5010,7 +4998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="22"/>
     </row>
   </sheetData>
@@ -5023,22 +5011,22 @@
   <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:O469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="11.54296875" style="5"/>
-    <col min="4" max="4" width="13.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.54296875" style="4"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.53125" style="5"/>
+    <col min="4" max="4" width="13.265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.53125" style="4"/>
+    <col min="10" max="10" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -5055,7 +5043,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>21551</v>
       </c>
@@ -5066,7 +5054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>21582</v>
       </c>
@@ -5077,7 +5065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>21610</v>
       </c>
@@ -5088,7 +5076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>21641</v>
       </c>
@@ -5099,7 +5087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>21671</v>
       </c>
@@ -5110,7 +5098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>21702</v>
       </c>
@@ -5118,7 +5106,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>21732</v>
       </c>
@@ -5139,7 +5127,7 @@
         <v>LIM_sup</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>21763</v>
       </c>
@@ -5159,7 +5147,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>21794</v>
       </c>
@@ -5179,7 +5167,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>21824</v>
       </c>
@@ -5199,7 +5187,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>21855</v>
       </c>
@@ -5219,7 +5207,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>21885</v>
       </c>
@@ -5239,7 +5227,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>21916</v>
       </c>
@@ -5259,7 +5247,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>21947</v>
       </c>
@@ -5279,7 +5267,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>21976</v>
       </c>
@@ -5299,7 +5287,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>22007</v>
       </c>
@@ -5319,7 +5307,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>22037</v>
       </c>
@@ -5339,7 +5327,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>22068</v>
       </c>
@@ -5359,7 +5347,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>22098</v>
       </c>
@@ -5379,7 +5367,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>22129</v>
       </c>
@@ -5399,7 +5387,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>22160</v>
       </c>
@@ -5419,7 +5407,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>22190</v>
       </c>
@@ -5439,7 +5427,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>22221</v>
       </c>
@@ -5459,7 +5447,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>22251</v>
       </c>
@@ -5479,7 +5467,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>22282</v>
       </c>
@@ -5499,7 +5487,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>22313</v>
       </c>
@@ -5519,7 +5507,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>22341</v>
       </c>
@@ -5539,7 +5527,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>22372</v>
       </c>
@@ -5559,7 +5547,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>22402</v>
       </c>
@@ -5579,7 +5567,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>22433</v>
       </c>
@@ -5599,7 +5587,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>22463</v>
       </c>
@@ -5619,7 +5607,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>22494</v>
       </c>
@@ -5639,7 +5627,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>22525</v>
       </c>
@@ -5659,7 +5647,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>22555</v>
       </c>
@@ -5679,7 +5667,7 @@
         <v>9.0313280567452706E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>22586</v>
       </c>
@@ -5687,7 +5675,7 @@
         <v>315.94</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>22616</v>
       </c>
@@ -5695,7 +5683,7 @@
         <v>316.85000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>22647</v>
       </c>
@@ -5703,7 +5691,7 @@
         <v>317.77999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>22678</v>
       </c>
@@ -5711,7 +5699,7 @@
         <v>318.39999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>22706</v>
       </c>
@@ -5719,7 +5707,7 @@
         <v>319.52999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>22737</v>
       </c>
@@ -5727,7 +5715,7 @@
         <v>320.42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>22767</v>
       </c>
@@ -5735,7 +5723,7 @@
         <v>320.85000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>22798</v>
       </c>
@@ -5743,7 +5731,7 @@
         <v>320.45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>22828</v>
       </c>
@@ -5751,7 +5739,7 @@
         <v>319.45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>22859</v>
       </c>
@@ -5759,7 +5747,7 @@
         <v>317.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>22890</v>
       </c>
@@ -5767,7 +5755,7 @@
         <v>316.11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>22920</v>
       </c>
@@ -5775,7 +5763,7 @@
         <v>315.27</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>22951</v>
       </c>
@@ -5783,7 +5771,7 @@
         <v>316.52999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>22981</v>
       </c>
@@ -5791,7 +5779,7 @@
         <v>317.52999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>23012</v>
       </c>
@@ -5799,7 +5787,7 @@
         <v>318.58</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>23043</v>
       </c>
@@ -5807,7 +5795,7 @@
         <v>318.92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>23071</v>
       </c>
@@ -5815,7 +5803,7 @@
         <v>319.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>23102</v>
       </c>
@@ -5823,7 +5811,7 @@
         <v>321.22000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>23132</v>
       </c>
@@ -5831,7 +5819,7 @@
         <v>322.08</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>23163</v>
       </c>
@@ -5839,7 +5827,7 @@
         <v>321.31</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>23193</v>
       </c>
@@ -5847,7 +5835,7 @@
         <v>319.58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>23224</v>
       </c>
@@ -5855,7 +5843,7 @@
         <v>317.61</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>23255</v>
       </c>
@@ -5863,7 +5851,7 @@
         <v>316.05</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>23285</v>
       </c>
@@ -5871,7 +5859,7 @@
         <v>315.83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>23316</v>
       </c>
@@ -5879,7 +5867,7 @@
         <v>316.91000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>23346</v>
       </c>
@@ -5887,7 +5875,7 @@
         <v>318.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>23377</v>
       </c>
@@ -5895,7 +5883,7 @@
         <v>319.41000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>23408</v>
       </c>
@@ -5903,7 +5891,7 @@
         <v>320.07</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>23437</v>
       </c>
@@ -5911,7 +5899,7 @@
         <v>320.74</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>23468</v>
       </c>
@@ -5919,7 +5907,7 @@
         <v>321.39999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>23498</v>
       </c>
@@ -5927,7 +5915,7 @@
         <v>322.06</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>23529</v>
       </c>
@@ -5935,7 +5923,7 @@
         <v>321.73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>23559</v>
       </c>
@@ -5943,7 +5931,7 @@
         <v>320.27</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>23590</v>
       </c>
@@ -5951,7 +5939,7 @@
         <v>318.54000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>23621</v>
       </c>
@@ -5959,7 +5947,7 @@
         <v>316.54000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>23651</v>
       </c>
@@ -5967,7 +5955,7 @@
         <v>316.70999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>23682</v>
       </c>
@@ -5975,7 +5963,7 @@
         <v>317.52999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>23712</v>
       </c>
@@ -5983,7 +5971,7 @@
         <v>318.55</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>23743</v>
       </c>
@@ -5991,7 +5979,7 @@
         <v>319.27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>23774</v>
       </c>
@@ -5999,7 +5987,7 @@
         <v>320.27999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>23802</v>
       </c>
@@ -6007,7 +5995,7 @@
         <v>320.73</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>23833</v>
       </c>
@@ -6015,7 +6003,7 @@
         <v>321.97000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>23863</v>
       </c>
@@ -6023,7 +6011,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>23894</v>
       </c>
@@ -6031,7 +6019,7 @@
         <v>321.70999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>23924</v>
       </c>
@@ -6039,7 +6027,7 @@
         <v>321.05</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>23955</v>
       </c>
@@ -6047,7 +6035,7 @@
         <v>318.70999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>23986</v>
       </c>
@@ -6055,7 +6043,7 @@
         <v>317.66000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>24016</v>
       </c>
@@ -6063,7 +6051,7 @@
         <v>317.14</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>24047</v>
       </c>
@@ -6071,7 +6059,7 @@
         <v>318.7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>24077</v>
       </c>
@@ -6079,7 +6067,7 @@
         <v>319.25</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>24108</v>
       </c>
@@ -6087,7 +6075,7 @@
         <v>320.45999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>24139</v>
       </c>
@@ -6095,7 +6083,7 @@
         <v>321.43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>24167</v>
       </c>
@@ -6103,7 +6091,7 @@
         <v>322.23</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>24198</v>
       </c>
@@ -6111,7 +6099,7 @@
         <v>323.54000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>24228</v>
       </c>
@@ -6119,7 +6107,7 @@
         <v>323.91000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>24259</v>
       </c>
@@ -6127,7 +6115,7 @@
         <v>323.58999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>24289</v>
       </c>
@@ -6135,7 +6123,7 @@
         <v>322.24</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>24320</v>
       </c>
@@ -6143,7 +6131,7 @@
         <v>320.2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>24351</v>
       </c>
@@ -6151,7 +6139,7 @@
         <v>318.48</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>24381</v>
       </c>
@@ -6159,7 +6147,7 @@
         <v>317.94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>24412</v>
       </c>
@@ -6167,7 +6155,7 @@
         <v>319.63</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>24442</v>
       </c>
@@ -6175,7 +6163,7 @@
         <v>320.87</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>24473</v>
       </c>
@@ -6183,7 +6171,7 @@
         <v>322.17</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>24504</v>
       </c>
@@ -6191,7 +6179,7 @@
         <v>322.33999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>24532</v>
       </c>
@@ -6199,7 +6187,7 @@
         <v>322.88</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>24563</v>
       </c>
@@ -6207,7 +6195,7 @@
         <v>324.25</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>24593</v>
       </c>
@@ -6215,7 +6203,7 @@
         <v>324.83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="11">
         <v>24624</v>
       </c>
@@ -6223,7 +6211,7 @@
         <v>323.93</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
         <v>24654</v>
       </c>
@@ -6231,7 +6219,7 @@
         <v>322.38</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
         <v>24685</v>
       </c>
@@ -6239,7 +6227,7 @@
         <v>320.76</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
         <v>24716</v>
       </c>
@@ -6247,7 +6235,7 @@
         <v>319.10000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
         <v>24746</v>
       </c>
@@ -6255,7 +6243,7 @@
         <v>319.24</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
         <v>24777</v>
       </c>
@@ -6263,7 +6251,7 @@
         <v>320.56</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="11">
         <v>24807</v>
       </c>
@@ -6271,7 +6259,7 @@
         <v>321.8</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
         <v>24838</v>
       </c>
@@ -6279,7 +6267,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="11">
         <v>24869</v>
       </c>
@@ -6287,7 +6275,7 @@
         <v>322.99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="11">
         <v>24898</v>
       </c>
@@ -6295,7 +6283,7 @@
         <v>323.73</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="11">
         <v>24929</v>
       </c>
@@ -6303,7 +6291,7 @@
         <v>324.86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>24959</v>
       </c>
@@ -6311,7 +6299,7 @@
         <v>325.39999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>24990</v>
       </c>
@@ -6319,7 +6307,7 @@
         <v>325.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>25020</v>
       </c>
@@ -6327,7 +6315,7 @@
         <v>323.98</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>25051</v>
       </c>
@@ -6335,7 +6323,7 @@
         <v>321.95</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <v>25082</v>
       </c>
@@ -6343,7 +6331,7 @@
         <v>320.18</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
         <v>25112</v>
       </c>
@@ -6351,7 +6339,7 @@
         <v>320.08999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
         <v>25143</v>
       </c>
@@ -6359,7 +6347,7 @@
         <v>321.16000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
         <v>25173</v>
       </c>
@@ -6367,7 +6355,7 @@
         <v>322.74</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
         <v>25204</v>
       </c>
@@ -6375,7 +6363,7 @@
         <v>323.83</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <v>25235</v>
       </c>
@@ -6383,7 +6371,7 @@
         <v>324.26</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>25263</v>
       </c>
@@ -6391,7 +6379,7 @@
         <v>325.47000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <v>25294</v>
       </c>
@@ -6399,7 +6387,7 @@
         <v>326.5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
         <v>25324</v>
       </c>
@@ -6407,7 +6395,7 @@
         <v>327.20999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
         <v>25355</v>
       </c>
@@ -6415,7 +6403,7 @@
         <v>326.54000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>25385</v>
       </c>
@@ -6423,7 +6411,7 @@
         <v>325.72000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="11">
         <v>25416</v>
       </c>
@@ -6431,7 +6419,7 @@
         <v>323.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="11">
         <v>25447</v>
       </c>
@@ -6439,7 +6427,7 @@
         <v>322.22000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>25477</v>
       </c>
@@ -6447,7 +6435,7 @@
         <v>321.62</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>25508</v>
       </c>
@@ -6455,7 +6443,7 @@
         <v>322.69</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <v>25538</v>
       </c>
@@ -6463,7 +6451,7 @@
         <v>323.95</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
         <v>25569</v>
       </c>
@@ -6471,7 +6459,7 @@
         <v>324.89</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
         <v>25600</v>
       </c>
@@ -6479,7 +6467,7 @@
         <v>325.82</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
         <v>25628</v>
       </c>
@@ -6487,7 +6475,7 @@
         <v>326.77</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
         <v>25659</v>
       </c>
@@ -6495,7 +6483,7 @@
         <v>327.97</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <v>25689</v>
       </c>
@@ -6503,7 +6491,7 @@
         <v>327.91</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>25720</v>
       </c>
@@ -6511,7 +6499,7 @@
         <v>327.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <v>25750</v>
       </c>
@@ -6519,7 +6507,7 @@
         <v>326.18</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
         <v>25781</v>
       </c>
@@ -6527,7 +6515,7 @@
         <v>324.52999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
         <v>25812</v>
       </c>
@@ -6535,7 +6523,7 @@
         <v>322.93</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>25842</v>
       </c>
@@ -6543,7 +6531,7 @@
         <v>322.89999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" s="11">
         <v>25873</v>
       </c>
@@ -6551,7 +6539,7 @@
         <v>323.85000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" s="11">
         <v>25903</v>
       </c>
@@ -6559,7 +6547,7 @@
         <v>324.95999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" s="11">
         <v>25934</v>
       </c>
@@ -6567,7 +6555,7 @@
         <v>326.01</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" s="11">
         <v>25965</v>
       </c>
@@ -6575,7 +6563,7 @@
         <v>326.51</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" s="11">
         <v>25993</v>
       </c>
@@ -6583,7 +6571,7 @@
         <v>327.01</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" s="11">
         <v>26024</v>
       </c>
@@ -6591,7 +6579,7 @@
         <v>327.62</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="11">
         <v>26054</v>
       </c>
@@ -6599,7 +6587,7 @@
         <v>328.76</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" s="11">
         <v>26085</v>
       </c>
@@ -6607,7 +6595,7 @@
         <v>328.4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" s="11">
         <v>26115</v>
       </c>
@@ -6615,7 +6603,7 @@
         <v>327.2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" s="11">
         <v>26146</v>
       </c>
@@ -6623,7 +6611,7 @@
         <v>325.27</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" s="11">
         <v>26177</v>
       </c>
@@ -6631,7 +6619,7 @@
         <v>323.2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" s="11">
         <v>26207</v>
       </c>
@@ -6639,7 +6627,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" s="11">
         <v>26238</v>
       </c>
@@ -6647,7 +6635,7 @@
         <v>324.63</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" s="11">
         <v>26268</v>
       </c>
@@ -6655,7 +6643,7 @@
         <v>325.85000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="11">
         <v>26299</v>
       </c>
@@ -6663,7 +6651,7 @@
         <v>326.60000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" s="11">
         <v>26330</v>
       </c>
@@ -6671,7 +6659,7 @@
         <v>327.47000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="11">
         <v>26359</v>
       </c>
@@ -6679,7 +6667,7 @@
         <v>327.58</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="11">
         <v>26390</v>
       </c>
@@ -6687,7 +6675,7 @@
         <v>329.56</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" s="11">
         <v>26420</v>
       </c>
@@ -6695,7 +6683,7 @@
         <v>329.9</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" s="11">
         <v>26451</v>
       </c>
@@ -6703,7 +6691,7 @@
         <v>328.92</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" s="11">
         <v>26481</v>
       </c>
@@ -6711,7 +6699,7 @@
         <v>327.88</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="11">
         <v>26512</v>
       </c>
@@ -6719,7 +6707,7 @@
         <v>326.16000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="11">
         <v>26543</v>
       </c>
@@ -6727,7 +6715,7 @@
         <v>324.68</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" s="11">
         <v>26573</v>
       </c>
@@ -6735,7 +6723,7 @@
         <v>325.04000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="11">
         <v>26604</v>
       </c>
@@ -6743,7 +6731,7 @@
         <v>326.33999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="11">
         <v>26634</v>
       </c>
@@ -6751,7 +6739,7 @@
         <v>327.39</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="11">
         <v>26665</v>
       </c>
@@ -6759,7 +6747,7 @@
         <v>328.37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="11">
         <v>26696</v>
       </c>
@@ -6767,7 +6755,7 @@
         <v>329.4</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" s="11">
         <v>26724</v>
       </c>
@@ -6775,7 +6763,7 @@
         <v>330.14</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" s="11">
         <v>26755</v>
       </c>
@@ -6783,7 +6771,7 @@
         <v>331.33</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" s="11">
         <v>26785</v>
       </c>
@@ -6791,7 +6779,7 @@
         <v>332.31</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" s="11">
         <v>26816</v>
       </c>
@@ -6799,7 +6787,7 @@
         <v>331.9</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" s="11">
         <v>26846</v>
       </c>
@@ -6807,7 +6795,7 @@
         <v>330.7</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" s="11">
         <v>26877</v>
       </c>
@@ -6815,7 +6803,7 @@
         <v>329.15</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" s="11">
         <v>26908</v>
       </c>
@@ -6823,7 +6811,7 @@
         <v>327.35000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" s="11">
         <v>26938</v>
       </c>
@@ -6831,7 +6819,7 @@
         <v>327.02</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" s="11">
         <v>26969</v>
       </c>
@@ -6839,7 +6827,7 @@
         <v>327.99</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" s="11">
         <v>26999</v>
       </c>
@@ -6847,7 +6835,7 @@
         <v>328.48</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" s="11">
         <v>27030</v>
       </c>
@@ -6855,7 +6843,7 @@
         <v>329.18</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" s="11">
         <v>27061</v>
       </c>
@@ -6863,7 +6851,7 @@
         <v>330.55</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" s="11">
         <v>27089</v>
       </c>
@@ -6871,7 +6859,7 @@
         <v>331.32</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="11">
         <v>27120</v>
       </c>
@@ -6879,7 +6867,7 @@
         <v>332.48</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" s="11">
         <v>27150</v>
       </c>
@@ -6887,7 +6875,7 @@
         <v>332.92</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" s="11">
         <v>27181</v>
       </c>
@@ -6895,7 +6883,7 @@
         <v>332.08</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" s="11">
         <v>27211</v>
       </c>
@@ -6903,7 +6891,7 @@
         <v>331.01</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" s="11">
         <v>27242</v>
       </c>
@@ -6911,7 +6899,7 @@
         <v>329.23</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="11">
         <v>27273</v>
       </c>
@@ -6919,7 +6907,7 @@
         <v>327.27</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" s="11">
         <v>27303</v>
       </c>
@@ -6927,7 +6915,7 @@
         <v>327.20999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" s="11">
         <v>27334</v>
       </c>
@@ -6935,7 +6923,7 @@
         <v>328.29</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="11">
         <v>27364</v>
       </c>
@@ -6943,7 +6931,7 @@
         <v>329.41</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="11">
         <v>27395</v>
       </c>
@@ -6951,7 +6939,7 @@
         <v>330.23</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="11">
         <v>27426</v>
       </c>
@@ -6959,7 +6947,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="11">
         <v>27454</v>
       </c>
@@ -6967,7 +6955,7 @@
         <v>331.87</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="11">
         <v>27485</v>
       </c>
@@ -6975,7 +6963,7 @@
         <v>333.14</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="11">
         <v>27515</v>
       </c>
@@ -6983,7 +6971,7 @@
         <v>333.8</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="11">
         <v>27546</v>
       </c>
@@ -6991,7 +6979,7 @@
         <v>333.43</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="11">
         <v>27576</v>
       </c>
@@ -6999,7 +6987,7 @@
         <v>331.73</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="11">
         <v>27607</v>
       </c>
@@ -7007,7 +6995,7 @@
         <v>329.9</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="11">
         <v>27638</v>
       </c>
@@ -7015,7 +7003,7 @@
         <v>328.4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="11">
         <v>27668</v>
       </c>
@@ -7023,7 +7011,7 @@
         <v>328.17</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="11">
         <v>27699</v>
       </c>
@@ -7031,7 +7019,7 @@
         <v>329.32</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="11">
         <v>27729</v>
       </c>
@@ -7039,7 +7027,7 @@
         <v>330.59</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="11">
         <v>27760</v>
       </c>
@@ -7047,7 +7035,7 @@
         <v>331.58</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="11">
         <v>27791</v>
       </c>
@@ -7055,7 +7043,7 @@
         <v>332.39</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="11">
         <v>27820</v>
       </c>
@@ -7063,7 +7051,7 @@
         <v>333.33</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="11">
         <v>27851</v>
       </c>
@@ -7071,7 +7059,7 @@
         <v>334.41</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="11">
         <v>27881</v>
       </c>
@@ -7079,7 +7067,7 @@
         <v>334.71</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="11">
         <v>27912</v>
       </c>
@@ -7087,7 +7075,7 @@
         <v>334.17</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="11">
         <v>27942</v>
       </c>
@@ -7095,7 +7083,7 @@
         <v>332.89</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="11">
         <v>27973</v>
       </c>
@@ -7103,7 +7091,7 @@
         <v>330.77</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="11">
         <v>28004</v>
       </c>
@@ -7111,7 +7099,7 @@
         <v>329.14</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="11">
         <v>28034</v>
       </c>
@@ -7119,7 +7107,7 @@
         <v>328.78</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="11">
         <v>28065</v>
       </c>
@@ -7127,7 +7115,7 @@
         <v>330.14</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="11">
         <v>28095</v>
       </c>
@@ -7135,7 +7123,7 @@
         <v>331.52</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="11">
         <v>28126</v>
       </c>
@@ -7143,7 +7131,7 @@
         <v>332.75</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="11">
         <v>28157</v>
       </c>
@@ -7151,7 +7139,7 @@
         <v>333.24</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="11">
         <v>28185</v>
       </c>
@@ -7159,7 +7147,7 @@
         <v>334.53</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="11">
         <v>28216</v>
       </c>
@@ -7167,7 +7155,7 @@
         <v>335.9</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" s="11">
         <v>28246</v>
       </c>
@@ -7175,7 +7163,7 @@
         <v>336.57</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" s="11">
         <v>28277</v>
       </c>
@@ -7183,7 +7171,7 @@
         <v>336.1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" s="11">
         <v>28307</v>
       </c>
@@ -7191,7 +7179,7 @@
         <v>334.76</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="11">
         <v>28338</v>
       </c>
@@ -7199,7 +7187,7 @@
         <v>332.59</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" s="11">
         <v>28369</v>
       </c>
@@ -7207,7 +7195,7 @@
         <v>331.42</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" s="11">
         <v>28399</v>
       </c>
@@ -7215,7 +7203,7 @@
         <v>330.98</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" s="11">
         <v>28430</v>
       </c>
@@ -7223,7 +7211,7 @@
         <v>332.24</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" s="11">
         <v>28460</v>
       </c>
@@ -7231,7 +7219,7 @@
         <v>333.68</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="11">
         <v>28491</v>
       </c>
@@ -7239,7 +7227,7 @@
         <v>334.8</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" s="11">
         <v>28522</v>
       </c>
@@ -7247,7 +7235,7 @@
         <v>335.22</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" s="11">
         <v>28550</v>
       </c>
@@ -7255,7 +7243,7 @@
         <v>336.47</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" s="11">
         <v>28581</v>
       </c>
@@ -7263,7 +7251,7 @@
         <v>337.59</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" s="11">
         <v>28611</v>
       </c>
@@ -7271,7 +7259,7 @@
         <v>337.84</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="11">
         <v>28642</v>
       </c>
@@ -7279,7 +7267,7 @@
         <v>337.72</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" s="11">
         <v>28672</v>
       </c>
@@ -7287,7 +7275,7 @@
         <v>336.37</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" s="11">
         <v>28703</v>
       </c>
@@ -7295,7 +7283,7 @@
         <v>334.51</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" s="11">
         <v>28734</v>
       </c>
@@ -7303,7 +7291,7 @@
         <v>332.6</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" s="11">
         <v>28764</v>
       </c>
@@ -7311,7 +7299,7 @@
         <v>332.38</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="11">
         <v>28795</v>
       </c>
@@ -7319,7 +7307,7 @@
         <v>333.75</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" s="11">
         <v>28825</v>
       </c>
@@ -7327,7 +7315,7 @@
         <v>334.78</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" s="11">
         <v>28856</v>
       </c>
@@ -7335,7 +7323,7 @@
         <v>336.05</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" s="11">
         <v>28887</v>
       </c>
@@ -7343,7 +7331,7 @@
         <v>336.59</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" s="11">
         <v>28915</v>
       </c>
@@ -7351,7 +7339,7 @@
         <v>337.79</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" s="11">
         <v>28946</v>
       </c>
@@ -7359,7 +7347,7 @@
         <v>338.71</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" s="11">
         <v>28976</v>
       </c>
@@ -7367,7 +7355,7 @@
         <v>339.3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" s="11">
         <v>29007</v>
       </c>
@@ -7375,7 +7363,7 @@
         <v>339.12</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" s="11">
         <v>29037</v>
       </c>
@@ -7383,7 +7371,7 @@
         <v>337.56</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" s="11">
         <v>29068</v>
       </c>
@@ -7391,7 +7379,7 @@
         <v>335.92</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" s="11">
         <v>29099</v>
       </c>
@@ -7399,7 +7387,7 @@
         <v>333.75</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" s="11">
         <v>29129</v>
       </c>
@@ -7407,7 +7395,7 @@
         <v>333.7</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" s="11">
         <v>29160</v>
       </c>
@@ -7415,7 +7403,7 @@
         <v>335.12</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" s="11">
         <v>29190</v>
       </c>
@@ -7423,7 +7411,7 @@
         <v>336.56</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" s="11">
         <v>29221</v>
       </c>
@@ -7431,7 +7419,7 @@
         <v>337.84</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" s="11">
         <v>29252</v>
       </c>
@@ -7439,7 +7427,7 @@
         <v>338.19</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" s="11">
         <v>29281</v>
       </c>
@@ -7447,7 +7435,7 @@
         <v>339.91</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" s="11">
         <v>29312</v>
       </c>
@@ -7455,7 +7443,7 @@
         <v>340.6</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" s="11">
         <v>29342</v>
       </c>
@@ -7463,7 +7451,7 @@
         <v>341.29</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" s="11">
         <v>29373</v>
       </c>
@@ -7471,7 +7459,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" s="11">
         <v>29403</v>
       </c>
@@ -7479,7 +7467,7 @@
         <v>339.39</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" s="11">
         <v>29434</v>
       </c>
@@ -7487,7 +7475,7 @@
         <v>337.43</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" s="11">
         <v>29465</v>
       </c>
@@ -7495,7 +7483,7 @@
         <v>335.72</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" s="11">
         <v>29495</v>
       </c>
@@ -7503,7 +7491,7 @@
         <v>335.84</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" s="11">
         <v>29526</v>
       </c>
@@ -7511,7 +7499,7 @@
         <v>336.93</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" s="11">
         <v>29556</v>
       </c>
@@ -7519,7 +7507,7 @@
         <v>338.04</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" s="11">
         <v>29587</v>
       </c>
@@ -7527,7 +7515,7 @@
         <v>339.06</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" s="11">
         <v>29618</v>
       </c>
@@ -7535,7 +7523,7 @@
         <v>340.3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" s="11">
         <v>29646</v>
       </c>
@@ -7543,7 +7531,7 @@
         <v>341.21</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" s="11">
         <v>29677</v>
       </c>
@@ -7551,7 +7539,7 @@
         <v>342.33</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" s="11">
         <v>29707</v>
       </c>
@@ -7559,7 +7547,7 @@
         <v>342.74</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" s="11">
         <v>29738</v>
       </c>
@@ -7567,7 +7555,7 @@
         <v>342.08</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" s="11">
         <v>29768</v>
       </c>
@@ -7575,7 +7563,7 @@
         <v>340.32</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" s="11">
         <v>29799</v>
       </c>
@@ -7583,7 +7571,7 @@
         <v>338.26</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" s="11">
         <v>29830</v>
       </c>
@@ -7591,7 +7579,7 @@
         <v>336.52</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" s="11">
         <v>29860</v>
       </c>
@@ -7599,7 +7587,7 @@
         <v>336.68</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" s="11">
         <v>29891</v>
       </c>
@@ -7607,7 +7595,7 @@
         <v>338.19</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" s="11">
         <v>29921</v>
       </c>
@@ -7615,7 +7603,7 @@
         <v>339.44</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" s="11">
         <v>29952</v>
       </c>
@@ -7623,7 +7611,7 @@
         <v>340.57</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" s="11">
         <v>29983</v>
       </c>
@@ -7631,7 +7619,7 @@
         <v>341.44</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" s="11">
         <v>30011</v>
       </c>
@@ -7639,7 +7627,7 @@
         <v>342.53</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" s="11">
         <v>30042</v>
       </c>
@@ -7647,7 +7635,7 @@
         <v>343.39</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" s="11">
         <v>30072</v>
       </c>
@@ -7655,7 +7643,7 @@
         <v>343.96</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" s="11">
         <v>30103</v>
       </c>
@@ -7663,7 +7651,7 @@
         <v>343.18</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" s="11">
         <v>30133</v>
       </c>
@@ -7671,7 +7659,7 @@
         <v>341.88</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" s="11">
         <v>30164</v>
       </c>
@@ -7679,7 +7667,7 @@
         <v>339.65</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" s="11">
         <v>30195</v>
       </c>
@@ -7687,7 +7675,7 @@
         <v>337.81</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" s="11">
         <v>30225</v>
       </c>
@@ -7695,7 +7683,7 @@
         <v>337.69</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" s="11">
         <v>30256</v>
       </c>
@@ -7703,7 +7691,7 @@
         <v>339.09</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" s="11">
         <v>30286</v>
       </c>
@@ -7711,7 +7699,7 @@
         <v>340.32</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" s="11">
         <v>30317</v>
       </c>
@@ -7719,7 +7707,7 @@
         <v>341.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" s="11">
         <v>30348</v>
       </c>
@@ -7727,7 +7715,7 @@
         <v>342.35</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" s="11">
         <v>30376</v>
       </c>
@@ -7735,7 +7723,7 @@
         <v>342.93</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" s="11">
         <v>30407</v>
       </c>
@@ -7743,7 +7731,7 @@
         <v>344.77</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" s="11">
         <v>30437</v>
       </c>
@@ -7751,7 +7739,7 @@
         <v>345.58</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" s="11">
         <v>30468</v>
       </c>
@@ -7759,7 +7747,7 @@
         <v>345.14</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" s="11">
         <v>30498</v>
       </c>
@@ -7767,7 +7755,7 @@
         <v>343.81</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" s="11">
         <v>30529</v>
       </c>
@@ -7775,7 +7763,7 @@
         <v>342.21</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" s="11">
         <v>30560</v>
       </c>
@@ -7783,7 +7771,7 @@
         <v>339.69</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" s="11">
         <v>30590</v>
       </c>
@@ -7791,7 +7779,7 @@
         <v>339.82</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" s="11">
         <v>30621</v>
       </c>
@@ -7799,7 +7787,7 @@
         <v>340.98</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" s="11">
         <v>30651</v>
       </c>
@@ -7807,7 +7795,7 @@
         <v>342.82</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" s="11">
         <v>30682</v>
       </c>
@@ -7815,7 +7803,7 @@
         <v>343.52</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" s="11">
         <v>30713</v>
       </c>
@@ -7823,7 +7811,7 @@
         <v>344.33</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" s="11">
         <v>30742</v>
       </c>
@@ -7831,7 +7819,7 @@
         <v>345.11</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" s="11">
         <v>30773</v>
       </c>
@@ -7839,7 +7827,7 @@
         <v>346.88</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" s="11">
         <v>30803</v>
       </c>
@@ -7847,7 +7835,7 @@
         <v>347.25</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" s="11">
         <v>30834</v>
       </c>
@@ -7855,7 +7843,7 @@
         <v>346.62</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" s="11">
         <v>30864</v>
       </c>
@@ -7863,7 +7851,7 @@
         <v>345.22</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" s="11">
         <v>30895</v>
       </c>
@@ -7871,7 +7859,7 @@
         <v>343.11</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" s="11">
         <v>30926</v>
       </c>
@@ -7879,7 +7867,7 @@
         <v>340.9</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" s="11">
         <v>30956</v>
       </c>
@@ -7887,7 +7875,7 @@
         <v>341.18</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" s="11">
         <v>30987</v>
       </c>
@@ -7895,7 +7883,7 @@
         <v>342.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" s="11">
         <v>31017</v>
       </c>
@@ -7903,7 +7891,7 @@
         <v>344.04</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" s="11">
         <v>31048</v>
       </c>
@@ -7911,7 +7899,7 @@
         <v>344.79</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" s="11">
         <v>31079</v>
       </c>
@@ -7919,7 +7907,7 @@
         <v>345.82</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" s="11">
         <v>31107</v>
       </c>
@@ -7927,7 +7915,7 @@
         <v>347.25</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" s="11">
         <v>31138</v>
       </c>
@@ -7935,7 +7923,7 @@
         <v>348.17</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" s="11">
         <v>31168</v>
       </c>
@@ -7943,7 +7931,7 @@
         <v>348.74</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" s="11">
         <v>31199</v>
       </c>
@@ -7951,7 +7939,7 @@
         <v>348.07</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" s="11">
         <v>31229</v>
       </c>
@@ -7959,7 +7947,7 @@
         <v>346.38</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" s="11">
         <v>31260</v>
       </c>
@@ -7967,7 +7955,7 @@
         <v>344.51</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" s="11">
         <v>31291</v>
       </c>
@@ -7975,7 +7963,7 @@
         <v>342.92</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" s="11">
         <v>31321</v>
       </c>
@@ -7983,7 +7971,7 @@
         <v>342.62</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" s="11">
         <v>31352</v>
       </c>
@@ -7991,7 +7979,7 @@
         <v>344.06</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" s="11">
         <v>31382</v>
       </c>
@@ -7999,7 +7987,7 @@
         <v>345.38</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" s="11">
         <v>31413</v>
       </c>
@@ -8007,7 +7995,7 @@
         <v>346.11</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" s="11">
         <v>31444</v>
       </c>
@@ -8015,7 +8003,7 @@
         <v>346.78</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" s="11">
         <v>31472</v>
       </c>
@@ -8023,7 +8011,7 @@
         <v>347.68</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" s="11">
         <v>31503</v>
       </c>
@@ -8031,7 +8019,7 @@
         <v>349.37</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" s="11">
         <v>31533</v>
       </c>
@@ -8039,7 +8027,7 @@
         <v>350.03</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" s="11">
         <v>31564</v>
       </c>
@@ -8047,7 +8035,7 @@
         <v>349.37</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" s="11">
         <v>31594</v>
       </c>
@@ -8055,7 +8043,7 @@
         <v>347.76</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" s="11">
         <v>31625</v>
       </c>
@@ -8063,7 +8051,7 @@
         <v>345.73</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" s="11">
         <v>31656</v>
       </c>
@@ -8071,7 +8059,7 @@
         <v>344.68</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" s="11">
         <v>31686</v>
       </c>
@@ -8079,7 +8067,7 @@
         <v>343.99</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" s="11">
         <v>31717</v>
       </c>
@@ -8087,7 +8075,7 @@
         <v>345.48</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" s="11">
         <v>31747</v>
       </c>
@@ -8095,7 +8083,7 @@
         <v>346.72</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" s="11">
         <v>31778</v>
       </c>
@@ -8103,7 +8091,7 @@
         <v>347.84</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" s="11">
         <v>31809</v>
       </c>
@@ -8111,7 +8099,7 @@
         <v>348.29</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" s="11">
         <v>31837</v>
       </c>
@@ -8119,7 +8107,7 @@
         <v>349.23</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" s="11">
         <v>31868</v>
       </c>
@@ -8127,7 +8115,7 @@
         <v>350.8</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" s="11">
         <v>31898</v>
       </c>
@@ -8135,7 +8123,7 @@
         <v>351.66</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" s="11">
         <v>31929</v>
       </c>
@@ -8143,7 +8131,7 @@
         <v>351.07</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" s="11">
         <v>31959</v>
       </c>
@@ -8151,7 +8139,7 @@
         <v>349.33</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" s="11">
         <v>31990</v>
       </c>
@@ -8159,7 +8147,7 @@
         <v>347.92</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" s="11">
         <v>32021</v>
       </c>
@@ -8167,7 +8155,7 @@
         <v>346.27</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" s="11">
         <v>32051</v>
       </c>
@@ -8175,7 +8163,7 @@
         <v>346.18</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" s="11">
         <v>32082</v>
       </c>
@@ -8183,7 +8171,7 @@
         <v>347.64</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" s="11">
         <v>32112</v>
       </c>
@@ -8191,7 +8179,7 @@
         <v>348.78</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" s="11">
         <v>32143</v>
       </c>
@@ -8199,7 +8187,7 @@
         <v>350.25</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" s="11">
         <v>32174</v>
       </c>
@@ -8207,7 +8195,7 @@
         <v>351.54</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" s="11">
         <v>32203</v>
       </c>
@@ -8215,7 +8203,7 @@
         <v>352.05</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" s="11">
         <v>32234</v>
       </c>
@@ -8223,7 +8211,7 @@
         <v>353.41</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" s="11">
         <v>32264</v>
       </c>
@@ -8231,7 +8219,7 @@
         <v>354.04</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" s="11">
         <v>32295</v>
       </c>
@@ -8239,7 +8227,7 @@
         <v>353.62</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" s="11">
         <v>32325</v>
       </c>
@@ -8247,7 +8235,7 @@
         <v>352.22</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" s="11">
         <v>32356</v>
       </c>
@@ -8255,7 +8243,7 @@
         <v>350.27</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" s="11">
         <v>32387</v>
       </c>
@@ -8263,7 +8251,7 @@
         <v>348.55</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" s="11">
         <v>32417</v>
       </c>
@@ -8271,7 +8259,7 @@
         <v>348.72</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" s="11">
         <v>32448</v>
       </c>
@@ -8279,7 +8267,7 @@
         <v>349.91</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" s="11">
         <v>32478</v>
       </c>
@@ -8287,7 +8275,7 @@
         <v>351.18</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" s="11">
         <v>32509</v>
       </c>
@@ -8295,7 +8283,7 @@
         <v>352.6</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" s="11">
         <v>32540</v>
       </c>
@@ -8303,7 +8291,7 @@
         <v>352.92</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" s="11">
         <v>32568</v>
       </c>
@@ -8311,7 +8299,7 @@
         <v>353.53</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" s="11">
         <v>32599</v>
       </c>
@@ -8319,7 +8307,7 @@
         <v>355.26</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" s="11">
         <v>32629</v>
       </c>
@@ -8327,7 +8315,7 @@
         <v>355.52</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" s="11">
         <v>32660</v>
       </c>
@@ -8335,7 +8323,7 @@
         <v>354.97</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" s="11">
         <v>32690</v>
       </c>
@@ -8343,7 +8331,7 @@
         <v>353.75</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369" s="11">
         <v>32721</v>
       </c>
@@ -8351,7 +8339,7 @@
         <v>351.52</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" s="11">
         <v>32752</v>
       </c>
@@ -8359,7 +8347,7 @@
         <v>349.64</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" s="11">
         <v>32782</v>
       </c>
@@ -8367,7 +8355,7 @@
         <v>349.83</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" s="11">
         <v>32813</v>
       </c>
@@ -8375,7 +8363,7 @@
         <v>351.14</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" s="11">
         <v>32843</v>
       </c>
@@ -8383,7 +8371,7 @@
         <v>352.37</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" s="11">
         <v>32874</v>
       </c>
@@ -8391,7 +8379,7 @@
         <v>353.5</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" s="11">
         <v>32905</v>
       </c>
@@ -8399,7 +8387,7 @@
         <v>354.55</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" s="11">
         <v>32933</v>
       </c>
@@ -8407,7 +8395,7 @@
         <v>355.23</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" s="11">
         <v>32964</v>
       </c>
@@ -8415,7 +8403,7 @@
         <v>356.04</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" s="11">
         <v>32994</v>
       </c>
@@ -8423,7 +8411,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" s="11">
         <v>33025</v>
       </c>
@@ -8431,7 +8419,7 @@
         <v>356.07</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" s="11">
         <v>33055</v>
       </c>
@@ -8439,7 +8427,7 @@
         <v>354.67</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" s="11">
         <v>33086</v>
       </c>
@@ -8447,7 +8435,7 @@
         <v>352.76</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" s="11">
         <v>33117</v>
       </c>
@@ -8455,7 +8443,7 @@
         <v>350.82</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" s="11">
         <v>33147</v>
       </c>
@@ -8463,7 +8451,7 @@
         <v>351.04</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384" s="11">
         <v>33178</v>
       </c>
@@ -8471,7 +8459,7 @@
         <v>352.69</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" s="11">
         <v>33208</v>
       </c>
@@ -8479,7 +8467,7 @@
         <v>354.07</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" s="11">
         <v>33239</v>
       </c>
@@ -8487,7 +8475,7 @@
         <v>354.59</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" s="11">
         <v>33270</v>
       </c>
@@ -8495,7 +8483,7 @@
         <v>355.63</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" s="11">
         <v>33298</v>
       </c>
@@ -8503,7 +8491,7 @@
         <v>357.03</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" s="11">
         <v>33329</v>
       </c>
@@ -8511,7 +8499,7 @@
         <v>358.48</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" s="11">
         <v>33359</v>
       </c>
@@ -8519,7 +8507,7 @@
         <v>359.22</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" s="11">
         <v>33390</v>
       </c>
@@ -8527,7 +8515,7 @@
         <v>358.12</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" s="11">
         <v>33420</v>
       </c>
@@ -8535,7 +8523,7 @@
         <v>356.06</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" s="11">
         <v>33451</v>
       </c>
@@ -8543,7 +8531,7 @@
         <v>353.92</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" s="11">
         <v>33482</v>
       </c>
@@ -8551,7 +8539,7 @@
         <v>352.05</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" s="11">
         <v>33512</v>
       </c>
@@ -8559,7 +8547,7 @@
         <v>352.11</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" s="11">
         <v>33543</v>
       </c>
@@ -8567,7 +8555,7 @@
         <v>353.64</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" s="11">
         <v>33573</v>
       </c>
@@ -8575,7 +8563,7 @@
         <v>354.89</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" s="11">
         <v>33604</v>
       </c>
@@ -8583,7 +8571,7 @@
         <v>355.88</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" s="11">
         <v>33635</v>
       </c>
@@ -8591,7 +8579,7 @@
         <v>356.63</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" s="11">
         <v>33664</v>
       </c>
@@ -8599,7 +8587,7 @@
         <v>357.72</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" s="11">
         <v>33695</v>
       </c>
@@ -8607,7 +8595,7 @@
         <v>359.07</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" s="11">
         <v>33725</v>
       </c>
@@ -8615,7 +8603,7 @@
         <v>359.58</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" s="11">
         <v>33756</v>
       </c>
@@ -8623,7 +8611,7 @@
         <v>359.17</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" s="11">
         <v>33786</v>
       </c>
@@ -8631,7 +8619,7 @@
         <v>356.94</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" s="11">
         <v>33817</v>
       </c>
@@ -8639,7 +8627,7 @@
         <v>354.92</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" s="11">
         <v>33848</v>
       </c>
@@ -8647,7 +8635,7 @@
         <v>352.94</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" s="11">
         <v>33878</v>
       </c>
@@ -8655,7 +8643,7 @@
         <v>353.23</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" s="11">
         <v>33909</v>
       </c>
@@ -8663,7 +8651,7 @@
         <v>354.09</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" s="11">
         <v>33939</v>
       </c>
@@ -8671,7 +8659,7 @@
         <v>355.33</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" s="11">
         <v>33970</v>
       </c>
@@ -8679,7 +8667,7 @@
         <v>356.63</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" s="11">
         <v>34001</v>
       </c>
@@ -8687,7 +8675,7 @@
         <v>357.1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" s="11">
         <v>34029</v>
       </c>
@@ -8695,7 +8683,7 @@
         <v>358.32</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" s="11">
         <v>34060</v>
       </c>
@@ -8703,7 +8691,7 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" s="11">
         <v>34090</v>
       </c>
@@ -8711,7 +8699,7 @@
         <v>360.23</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" s="11">
         <v>34121</v>
       </c>
@@ -8719,7 +8707,7 @@
         <v>359.55</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" s="11">
         <v>34151</v>
       </c>
@@ -8727,7 +8715,7 @@
         <v>357.53</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" s="11">
         <v>34182</v>
       </c>
@@ -8735,7 +8723,7 @@
         <v>355.48</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" s="11">
         <v>34213</v>
       </c>
@@ -8743,7 +8731,7 @@
         <v>353.67</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" s="11">
         <v>34243</v>
       </c>
@@ -8751,7 +8739,7 @@
         <v>353.95</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" s="11">
         <v>34274</v>
       </c>
@@ -8759,7 +8747,7 @@
         <v>355.3</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" s="11">
         <v>34304</v>
       </c>
@@ -8767,7 +8755,7 @@
         <v>356.78</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" s="11">
         <v>34335</v>
       </c>
@@ -8775,7 +8763,7 @@
         <v>358.34</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" s="11">
         <v>34366</v>
       </c>
@@ -8783,7 +8771,7 @@
         <v>358.89</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" s="11">
         <v>34394</v>
       </c>
@@ -8791,7 +8779,7 @@
         <v>359.95</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" s="11">
         <v>34425</v>
       </c>
@@ -8799,7 +8787,7 @@
         <v>361.25</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" s="11">
         <v>34455</v>
       </c>
@@ -8807,7 +8795,7 @@
         <v>361.67</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" s="11">
         <v>34486</v>
       </c>
@@ -8815,7 +8803,7 @@
         <v>360.94</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" s="11">
         <v>34516</v>
       </c>
@@ -8823,7 +8811,7 @@
         <v>359.55</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" s="11">
         <v>34547</v>
       </c>
@@ -8831,7 +8819,7 @@
         <v>357.49</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" s="11">
         <v>34578</v>
       </c>
@@ -8839,7 +8827,7 @@
         <v>355.84</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" s="11">
         <v>34608</v>
       </c>
@@ -8847,7 +8835,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" s="11">
         <v>34639</v>
       </c>
@@ -8855,7 +8843,7 @@
         <v>357.59</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" s="11">
         <v>34669</v>
       </c>
@@ -8863,7 +8851,7 @@
         <v>359.05</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" s="11">
         <v>34700</v>
       </c>
@@ -8871,7 +8859,7 @@
         <v>359.98</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435" s="11">
         <v>34731</v>
       </c>
@@ -8879,7 +8867,7 @@
         <v>361.03</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436" s="11">
         <v>34759</v>
       </c>
@@ -8887,7 +8875,7 @@
         <v>361.66</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437" s="11">
         <v>34790</v>
       </c>
@@ -8895,7 +8883,7 @@
         <v>363.48</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438" s="11">
         <v>34820</v>
       </c>
@@ -8903,7 +8891,7 @@
         <v>363.82</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439" s="11">
         <v>34851</v>
       </c>
@@ -8911,7 +8899,7 @@
         <v>363.3</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440" s="11">
         <v>34881</v>
       </c>
@@ -8919,7 +8907,7 @@
         <v>361.94</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441" s="11">
         <v>34912</v>
       </c>
@@ -8927,7 +8915,7 @@
         <v>359.5</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442" s="11">
         <v>34943</v>
       </c>
@@ -8935,7 +8923,7 @@
         <v>358.11</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443" s="11">
         <v>34973</v>
       </c>
@@ -8943,7 +8931,7 @@
         <v>357.8</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444" s="11">
         <v>35004</v>
       </c>
@@ -8951,7 +8939,7 @@
         <v>359.61</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445" s="11">
         <v>35034</v>
       </c>
@@ -8959,7 +8947,7 @@
         <v>360.74</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446" s="11">
         <v>35065</v>
       </c>
@@ -8967,7 +8955,7 @@
         <v>362.09</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447" s="11">
         <v>35096</v>
       </c>
@@ -8975,7 +8963,7 @@
         <v>363.29</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448" s="11">
         <v>35125</v>
       </c>
@@ -8983,7 +8971,7 @@
         <v>364.06</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449" s="11">
         <v>35156</v>
       </c>
@@ -8991,7 +8979,7 @@
         <v>364.76</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450" s="11">
         <v>35186</v>
       </c>
@@ -8999,7 +8987,7 @@
         <v>365.45</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451" s="11">
         <v>35217</v>
       </c>
@@ -9007,7 +8995,7 @@
         <v>365.01</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452" s="11">
         <v>35247</v>
       </c>
@@ -9015,7 +9003,7 @@
         <v>363.7</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453" s="11">
         <v>35278</v>
       </c>
@@ -9023,7 +9011,7 @@
         <v>361.54</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454" s="11">
         <v>35309</v>
       </c>
@@ -9031,7 +9019,7 @@
         <v>359.51</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455" s="11">
         <v>35339</v>
       </c>
@@ -9039,7 +9027,7 @@
         <v>359.65</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456" s="11">
         <v>35370</v>
       </c>
@@ -9047,7 +9035,7 @@
         <v>360.8</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457" s="11">
         <v>35400</v>
       </c>
@@ -9055,7 +9043,7 @@
         <v>362.38</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458" s="11">
         <v>35431</v>
       </c>
@@ -9063,7 +9051,7 @@
         <v>363.23</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459" s="11">
         <v>35462</v>
       </c>
@@ -9071,7 +9059,7 @@
         <v>364.06</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460" s="11">
         <v>35490</v>
       </c>
@@ -9079,7 +9067,7 @@
         <v>364.61</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461" s="11">
         <v>35521</v>
       </c>
@@ -9087,7 +9075,7 @@
         <v>366.4</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462" s="11">
         <v>35551</v>
       </c>
@@ -9095,7 +9083,7 @@
         <v>366.84</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463" s="11">
         <v>35582</v>
       </c>
@@ -9103,7 +9091,7 @@
         <v>365.68</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464" s="11">
         <v>35612</v>
       </c>
@@ -9111,7 +9099,7 @@
         <v>364.52</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465" s="11">
         <v>35643</v>
       </c>
@@ -9119,7 +9107,7 @@
         <v>362.57</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466" s="11">
         <v>35674</v>
       </c>
@@ -9127,7 +9115,7 @@
         <v>360.24</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467" s="11">
         <v>35704</v>
       </c>
@@ -9135,7 +9123,7 @@
         <v>360.83</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468" s="11">
         <v>35735</v>
       </c>
@@ -9143,7 +9131,7 @@
         <v>362.49</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469" s="11">
         <v>35765</v>
       </c>
@@ -9165,17 +9153,17 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.73046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="6"/>
+    <col min="8" max="16384" width="11.53125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9195,7 +9183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -9215,7 +9203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -9235,7 +9223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -9255,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -9275,7 +9263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -9289,7 +9277,7 @@
         <v>-0.65011996601920297</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -9307,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -9324,7 +9312,7 @@
         <v>Call:</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -9341,7 +9329,7 @@
         <v>tseries::garch(x = DatosXts, order = c(OrdenP, OrdenQ))</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -9358,7 +9346,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -9375,7 +9363,7 @@
         <v>Model:</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -9392,7 +9380,7 @@
         <v>GARCH(2,2)</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -9409,7 +9397,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -9426,7 +9414,7 @@
         <v>Residuals:</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -9443,7 +9431,7 @@
         <v xml:space="preserve">    Min      1Q  Median      3Q     Max </v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -9460,7 +9448,7 @@
         <v xml:space="preserve">-0.9205 -0.8196 -0.7409 -0.5107  0.3155 </v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -9477,7 +9465,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -9494,7 +9482,7 @@
         <v>Coefficient(s):</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -9511,7 +9499,7 @@
         <v xml:space="preserve">    Estimate  Std. Error  t value Pr(&gt;|t|)</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -9528,7 +9516,7 @@
         <v>a0 4.024e+01   4.038e+01    0.997    0.319</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -9545,7 +9533,7 @@
         <v>a1 6.921e-01   2.248e+00    0.308    0.758</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -9562,7 +9550,7 @@
         <v>a2 6.853e-01   2.450e+00    0.280    0.780</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -9579,7 +9567,7 @@
         <v>b1 2.958e-03   1.128e+00    0.003    0.998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -9596,7 +9584,7 @@
         <v>b2 7.212e-13   7.812e-01    0.000    1.000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -9613,7 +9601,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -9630,7 +9618,7 @@
         <v>Diagnostic Tests:</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -9647,7 +9635,7 @@
         <v xml:space="preserve">	Jarque Bera Test</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -9664,7 +9652,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -9681,7 +9669,7 @@
         <v>data:  Residuals</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -9698,7 +9686,7 @@
         <v>X-squared = 85.491, df = 2, p-value &lt; 2.2e-16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -9715,7 +9703,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -9732,7 +9720,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -9749,7 +9737,7 @@
         <v xml:space="preserve">	Box-Ljung test</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -9766,7 +9754,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -9783,7 +9771,7 @@
         <v>data:  Squared.Residuals</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -9800,7 +9788,7 @@
         <v>X-squared = 147.85, df = 1, p-value &lt; 2.2e-16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -9817,7 +9805,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -9831,7 +9819,7 @@
         <v>-3.6189582310210402</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -9845,7 +9833,7 @@
         <v>-2.6630654438585899</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -9859,7 +9847,7 @@
         <v>-3.7986854924816198</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -9873,7 +9861,7 @@
         <v>-4.2639212019492403</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -9887,7 +9875,7 @@
         <v>-5.8144003149841597</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -9901,7 +9889,7 @@
         <v>-4.1921345528618001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -9915,7 +9903,7 @@
         <v>-4.9197367034586801</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -9929,7 +9917,7 @@
         <v>-4.2227313615896804</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -9943,7 +9931,7 @@
         <v>-3.9611608228267001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -9957,7 +9945,7 @@
         <v>-4.6993168575959396</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -9971,7 +9959,7 @@
         <v>-4.4652707395154501</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -9985,7 +9973,7 @@
         <v>-3.9624865428837799</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -9999,7 +9987,7 @@
         <v>-3.7044289493909002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -10013,7 +10001,7 @@
         <v>-5.2357231409602898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -10027,7 +10015,7 @@
         <v>-5.6693632505183897</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -10041,7 +10029,7 @@
         <v>-4.2960601479560303</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -10055,7 +10043,7 @@
         <v>-3.34355730280231</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -10069,7 +10057,7 @@
         <v>-3.5865134468398101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -10083,7 +10071,7 @@
         <v>-4.8502775875715596</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -10097,7 +10085,7 @@
         <v>-4.20933569266177</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -10111,7 +10099,7 @@
         <v>-4.24777438127997</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -10125,7 +10113,7 @@
         <v>-3.7086468609953398</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -10139,7 +10127,7 @@
         <v>-3.1962899343886102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -10153,7 +10141,7 @@
         <v>-3.8925167923450199</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -10167,7 +10155,7 @@
         <v>-4.1840934076195504</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -10181,7 +10169,7 @@
         <v>-5.5684216590159403</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -10195,7 +10183,7 @@
         <v>-4.7180313120078399</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -10209,7 +10197,7 @@
         <v>-3.9828285664407499</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -10223,7 +10211,7 @@
         <v>-4.92863243817966</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -10237,7 +10225,7 @@
         <v>-5.3874352082839696</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -10251,7 +10239,7 @@
         <v>-6.0554230894809704</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -10265,7 +10253,7 @@
         <v>-6.2725962018419397</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -10279,7 +10267,7 @@
         <v>-5.21715611499876</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -10293,7 +10281,7 @@
         <v>-5.6312906655911297</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -10307,7 +10295,7 @@
         <v>-4.5556620548266702</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -10321,7 +10309,7 @@
         <v>-4.5326900158762697</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -10335,7 +10323,7 @@
         <v>-5.10970605259865</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -10349,7 +10337,7 @@
         <v>-3.91009844051842</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -10363,7 +10351,7 @@
         <v>-1.4500686832302101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -10377,7 +10365,7 @@
         <v>-2.3638391029115402</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -10391,7 +10379,7 @@
         <v>-3.4493554541268301</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -10405,7 +10393,7 @@
         <v>-4.1708507431964303</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -10419,7 +10407,7 @@
         <v>-3.6445218894489901</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -10433,7 +10421,7 @@
         <v>-5.5328536834522302</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -10447,7 +10435,7 @@
         <v>-5.5299905521365904</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -10461,7 +10449,7 @@
         <v>-5.5909886751486697</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -10475,7 +10463,7 @@
         <v>-4.6441634227502604</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -10489,7 +10477,7 @@
         <v>-4.7497661212908397</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -10503,7 +10491,7 @@
         <v>-5.80789785099625</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -10517,7 +10505,7 @@
         <v>-4.8868168494445898</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -10531,7 +10519,7 @@
         <v>-5.9413186424982198</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -10545,7 +10533,7 @@
         <v>-4.2516653848670396</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -10559,7 +10547,7 @@
         <v>-7.1055165559232503</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -10573,7 +10561,7 @@
         <v>-6.6552934215812902</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -10587,7 +10575,7 @@
         <v>-5.2123485654811796</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -10601,7 +10589,7 @@
         <v>-7.7648414266510004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -10615,7 +10603,7 @@
         <v>-7.9780912067268304</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -10629,7 +10617,7 @@
         <v>-8.7437918957373899</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -10643,7 +10631,7 @@
         <v>-8.0789392775998294</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -10657,7 +10645,7 @@
         <v>-7.4431751455708604</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -10671,7 +10659,7 @@
         <v>-9.2119882144659506</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -10685,7 +10673,7 @@
         <v>-9.7141353276709594</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -10699,7 +10687,7 @@
         <v>-9.4447073216282291</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -10713,7 +10701,7 @@
         <v>-8.7558092623466308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -10727,7 +10715,7 @@
         <v>-9.8005468669193601</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -10741,7 +10729,7 @@
         <v>-8.9203317869739696</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="18">
         <v>103</v>
       </c>
@@ -10755,7 +10743,7 @@
         <v>-9.0931413016324605</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -10769,7 +10757,7 @@
         <v>-9.7212368901645707</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -10783,7 +10771,7 @@
         <v>-9.66604556405861</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -10797,7 +10785,7 @@
         <v>-8.1481623146090296</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -10811,7 +10799,7 @@
         <v>-9.8081661747890401</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -10825,7 +10813,7 @@
         <v>-9.8495204769924101</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -10839,7 +10827,7 @@
         <v>-10.1869120841744</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -10853,7 +10841,7 @@
         <v>-10.4162701391485</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -10867,7 +10855,7 @@
         <v>-10.5724974790815</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -10881,7 +10869,7 @@
         <v>-10.8806688486862</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -10895,7 +10883,7 @@
         <v>-10.1340534130513</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -10909,7 +10897,7 @@
         <v>-11.555597647809201</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -10923,7 +10911,7 @@
         <v>-10.1933357144305</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -10937,7 +10925,7 @@
         <v>-11.6500799871745</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -10951,7 +10939,7 @@
         <v>-11.983553129706401</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -10965,7 +10953,7 @@
         <v>-11.8846098444013</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -10979,7 +10967,7 @@
         <v>-13.3170701171122</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -10993,7 +10981,7 @@
         <v>-13.973423679588899</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="18">
         <v>121</v>
       </c>
@@ -11007,7 +10995,7 @@
         <v>-14.9966081081692</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -11021,7 +11009,7 @@
         <v>-14.7236623999739</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -11035,7 +11023,7 @@
         <v>-14.3987784264275</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="18">
         <v>124</v>
       </c>
@@ -11049,7 +11037,7 @@
         <v>-15.186961943445599</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="18">
         <v>125</v>
       </c>
@@ -11063,7 +11051,7 @@
         <v>-14.3524415617323</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="18">
         <v>126</v>
       </c>
@@ -11077,7 +11065,7 @@
         <v>-15.803263595291901</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="18">
         <v>127</v>
       </c>
@@ -11091,7 +11079,7 @@
         <v>-15.8702564879055</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="18">
         <v>128</v>
       </c>
@@ -11105,7 +11093,7 @@
         <v>-17.8463471799205</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="18">
         <v>129</v>
       </c>
@@ -11119,7 +11107,7 @@
         <v>-17.654351668581</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="18">
         <v>130</v>
       </c>
@@ -11133,7 +11121,7 @@
         <v>-19.716777603105498</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="18">
         <v>131</v>
       </c>
@@ -11147,7 +11135,7 @@
         <v>-18.6742131639161</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="18">
         <v>132</v>
       </c>
@@ -11161,7 +11149,7 @@
         <v>-19.5606508227314</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="18">
         <v>133</v>
       </c>
@@ -11175,7 +11163,7 @@
         <v>-19.041098148075601</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="18">
         <v>134</v>
       </c>
@@ -11189,7 +11177,7 @@
         <v>-18.275567161367199</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="18">
         <v>135</v>
       </c>
@@ -11203,7 +11191,7 @@
         <v>-17.577546067248502</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="18">
         <v>136</v>
       </c>
@@ -11217,7 +11205,7 @@
         <v>-17.2810899958574</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="18">
         <v>137</v>
       </c>
@@ -11231,7 +11219,7 @@
         <v>-17.9134039861686</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="18">
         <v>138</v>
       </c>
@@ -11245,7 +11233,7 @@
         <v>-17.077733832192699</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="18">
         <v>139</v>
       </c>
@@ -11259,7 +11247,7 @@
         <v>-15.4697280977765</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="18">
         <v>140</v>
       </c>
@@ -11273,7 +11261,7 @@
         <v>-17.301112414074801</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="18">
         <v>141</v>
       </c>
@@ -11287,7 +11275,7 @@
         <v>-17.0557420671371</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="18">
         <v>142</v>
       </c>
@@ -11301,7 +11289,7 @@
         <v>-16.677424689287399</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="18">
         <v>143</v>
       </c>
@@ -11315,7 +11303,7 @@
         <v>-16.217465467957101</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="18">
         <v>144</v>
       </c>
@@ -11329,7 +11317,7 @@
         <v>-16.784878970074601</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="18">
         <v>145</v>
       </c>
@@ -11343,7 +11331,7 @@
         <v>-16.5358506965365</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="18">
         <v>146</v>
       </c>
@@ -11357,7 +11345,7 @@
         <v>-16.895073548967801</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="18">
         <v>147</v>
       </c>
@@ -11371,7 +11359,7 @@
         <v>-17.219813386668701</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="18">
         <v>148</v>
       </c>
@@ -11385,7 +11373,7 @@
         <v>-17.2076733475574</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="18">
         <v>149</v>
       </c>
@@ -11399,7 +11387,7 @@
         <v>-16.6567913287025</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="18">
         <v>150</v>
       </c>
@@ -11413,7 +11401,7 @@
         <v>-17.610374363481299</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="18">
         <v>151</v>
       </c>
@@ -11427,7 +11415,7 @@
         <v>-16.844857146717899</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="18">
         <v>152</v>
       </c>
@@ -11441,7 +11429,7 @@
         <v>-16.814122461560899</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="18">
         <v>153</v>
       </c>
@@ -11455,7 +11443,7 @@
         <v>-15.4089144940815</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="18">
         <v>154</v>
       </c>
@@ -11469,7 +11457,7 @@
         <v>-16.3682210115646</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="18">
         <v>155</v>
       </c>
@@ -11483,7 +11471,7 @@
         <v>-14.6098029953059</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="18">
         <v>156</v>
       </c>
@@ -11497,7 +11485,7 @@
         <v>-16.185192186291101</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="18">
         <v>157</v>
       </c>
@@ -11511,7 +11499,7 @@
         <v>-17.6793978594119</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="18">
         <v>158</v>
       </c>
@@ -11525,7 +11513,7 @@
         <v>-18.180850977865401</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="18">
         <v>159</v>
       </c>
@@ -11539,7 +11527,7 @@
         <v>-17.706086209741301</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="18">
         <v>160</v>
       </c>
@@ -11553,7 +11541,7 @@
         <v>-18.103785400302002</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="18">
         <v>161</v>
       </c>
@@ -11567,7 +11555,7 @@
         <v>-19.715575423075801</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="18">
         <v>162</v>
       </c>
@@ -11581,7 +11569,7 @@
         <v>-20.047190667930799</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="18">
         <v>163</v>
       </c>
@@ -11595,7 +11583,7 @@
         <v>-19.7924309619311</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="18">
         <v>164</v>
       </c>
@@ -11609,7 +11597,7 @@
         <v>-18.9538809649871</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="18">
         <v>165</v>
       </c>
@@ -11623,7 +11611,7 @@
         <v>-20.5339238911045</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="18">
         <v>166</v>
       </c>
@@ -11637,7 +11625,7 @@
         <v>-21.492451224019099</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="18">
         <v>167</v>
       </c>
@@ -11651,7 +11639,7 @@
         <v>-21.570064926368399</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="18">
         <v>168</v>
       </c>
@@ -11665,7 +11653,7 @@
         <v>-20.690154134201801</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="18">
         <v>169</v>
       </c>
@@ -11679,7 +11667,7 @@
         <v>-19.807505213161299</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="18">
         <v>170</v>
       </c>
@@ -11693,7 +11681,7 @@
         <v>-20.357448724602801</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="18">
         <v>171</v>
       </c>
@@ -11707,7 +11695,7 @@
         <v>-18.938371762185302</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="18">
         <v>172</v>
       </c>
@@ -11721,7 +11709,7 @@
         <v>-19.897110922605901</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="18">
         <v>173</v>
       </c>
@@ -11735,7 +11723,7 @@
         <v>-19.635350738652999</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="18">
         <v>174</v>
       </c>
@@ -11749,7 +11737,7 @@
         <v>-20.382610399179299</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="18">
         <v>175</v>
       </c>
@@ -11763,7 +11751,7 @@
         <v>-20.675041175602601</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="18">
         <v>176</v>
       </c>
@@ -11777,7 +11765,7 @@
         <v>-18.876803941016899</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="18">
         <v>177</v>
       </c>
@@ -11791,7 +11779,7 @@
         <v>-20.239859618469399</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="18">
         <v>178</v>
       </c>
@@ -11805,7 +11793,7 @@
         <v>-19.889491966794001</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="18">
         <v>179</v>
       </c>
@@ -11819,7 +11807,7 @@
         <v>-20.4317923095381</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="18">
         <v>180</v>
       </c>
@@ -11833,7 +11821,7 @@
         <v>-20.2474409434565</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="18">
         <v>181</v>
       </c>
@@ -11847,7 +11835,7 @@
         <v>-19.833687336541999</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="18">
         <v>182</v>
       </c>
@@ -11861,7 +11849,7 @@
         <v>-18.611433945105599</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="18">
         <v>183</v>
       </c>
@@ -11875,7 +11863,7 @@
         <v>-18.448266310543602</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="18">
         <v>184</v>
       </c>
@@ -11889,7 +11877,7 @@
         <v>-18.659968436262201</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="18">
         <v>185</v>
       </c>
@@ -11903,7 +11891,7 @@
         <v>-18.472353544198</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="18">
         <v>186</v>
       </c>
@@ -11917,7 +11905,7 @@
         <v>-17.342890469433101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="18">
         <v>187</v>
       </c>
@@ -11931,7 +11919,7 @@
         <v>-19.287609308265999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="18">
         <v>188</v>
       </c>
@@ -11945,7 +11933,7 @@
         <v>-18.6769647158415</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="18">
         <v>189</v>
       </c>
@@ -11959,7 +11947,7 @@
         <v>-19.4740355989235</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="18">
         <v>190</v>
       </c>
@@ -11973,7 +11961,7 @@
         <v>-20.3095379206862</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="18">
         <v>191</v>
       </c>
@@ -11987,7 +11975,7 @@
         <v>-20.070374523569001</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="18">
         <v>192</v>
       </c>
@@ -12001,7 +11989,7 @@
         <v>-20.193891260570801</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="18">
         <v>193</v>
       </c>
@@ -12015,7 +12003,7 @@
         <v>-19.520366035087701</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="18">
         <v>194</v>
       </c>
@@ -12029,7 +12017,7 @@
         <v>-20.463284903580099</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="18">
         <v>195</v>
       </c>
@@ -12043,7 +12031,7 @@
         <v>-19.085537048627099</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="18">
         <v>196</v>
       </c>
@@ -12057,7 +12045,7 @@
         <v>-20.472526219182999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="18">
         <v>197</v>
       </c>
@@ -12071,7 +12059,7 @@
         <v>-19.369452945024801</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="18">
         <v>198</v>
       </c>
@@ -12085,7 +12073,7 @@
         <v>-19.3789222098377</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="18">
         <v>199</v>
       </c>
@@ -12099,7 +12087,7 @@
         <v>-19.2863665212348</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="18">
         <v>200</v>
       </c>
@@ -12123,21 +12111,21 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="4" width="11.54296875" style="2"/>
-    <col min="5" max="5" width="11.54296875" style="3"/>
-    <col min="6" max="6" width="10.6328125" style="3"/>
-    <col min="7" max="7" width="11.54296875" style="3"/>
-    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.53125" style="1"/>
+    <col min="3" max="4" width="11.53125" style="2"/>
+    <col min="5" max="5" width="11.53125" style="3"/>
+    <col min="6" max="6" width="10.59765625" style="3"/>
+    <col min="7" max="7" width="11.53125" style="3"/>
+    <col min="10" max="10" width="12.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -12153,12 +12141,12 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="str" cm="1">
-        <f t="array" ref="J1:J5">_xll.R.ST_Filtro(C1:C169,3,$H$2,,,$H$3)</f>
-        <v>[1] Hodrick-Prescott</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1" cm="1">
+        <f t="array" ref="J1">_xll.R.ST_Filtro(C1:C169,3,$H$2,,,$H$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1959</v>
       </c>
@@ -12181,11 +12169,8 @@
       <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" t="str">
-        <v>[2] Baxter-King</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>1959</v>
       </c>
@@ -12207,11 +12192,8 @@
       <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" t="str">
-        <v>[3] Christiano-Fitzgerald</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>1959</v>
       </c>
@@ -12227,11 +12209,8 @@
       <c r="E4" s="14">
         <v>-0.53989600000000004</v>
       </c>
-      <c r="J4" t="str">
-        <v>[4] Butterworth</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>1959</v>
       </c>
@@ -12247,11 +12226,8 @@
       <c r="E5" s="14">
         <v>-0.21987699999999999</v>
       </c>
-      <c r="J5" t="str">
-        <v>[5] Trigonometric regression</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>1960</v>
       </c>
@@ -12268,7 +12244,7 @@
         <v>-0.69875600000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>1960</v>
       </c>
@@ -12285,7 +12261,7 @@
         <v>-0.60899199999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>1960</v>
       </c>
@@ -12302,7 +12278,7 @@
         <v>-0.31594100000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>1960</v>
       </c>
@@ -12319,7 +12295,7 @@
         <v>0.41542200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>1961</v>
       </c>
@@ -12336,7 +12312,7 @@
         <v>0.95365200000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>1961</v>
       </c>
@@ -12353,7 +12329,7 @@
         <v>1.167046</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>1961</v>
       </c>
@@ -12370,7 +12346,7 @@
         <v>0.95663600000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>1961</v>
       </c>
@@ -12387,7 +12363,7 @@
         <v>0.42272599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>1962</v>
       </c>
@@ -12404,7 +12380,7 @@
         <v>-0.101644</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>1962</v>
       </c>
@@ -12421,7 +12397,7 @@
         <v>-0.150366</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>1962</v>
       </c>
@@ -12438,7 +12414,7 @@
         <v>-5.7267999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>1962</v>
       </c>
@@ -12455,7 +12431,7 @@
         <v>-2.2751E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>1963</v>
       </c>
@@ -12472,7 +12448,7 @@
         <v>0.28615400000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>1963</v>
       </c>
@@ -12489,7 +12465,7 @@
         <v>0.335762</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>1963</v>
       </c>
@@ -12506,7 +12482,7 @@
         <v>0.19220999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>1963</v>
       </c>
@@ -12523,7 +12499,7 @@
         <v>0.35476000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>1964</v>
       </c>
@@ -12540,7 +12516,7 @@
         <v>0.35588500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>1964</v>
       </c>
@@ -12557,7 +12533,7 @@
         <v>0.19450300000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>1964</v>
       </c>
@@ -12574,7 +12550,7 @@
         <v>0.102644</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>1964</v>
       </c>
@@ -12591,7 +12567,7 @@
         <v>0.17888299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>1965</v>
       </c>
@@ -12608,7 +12584,7 @@
         <v>0.22173000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>1965</v>
       </c>
@@ -12625,7 +12601,7 @@
         <v>9.6251000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>1965</v>
       </c>
@@ -12642,7 +12618,7 @@
         <v>-9.9293999999999993E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>1965</v>
       </c>
@@ -12659,7 +12635,7 @@
         <v>-0.26670500000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>1966</v>
       </c>
@@ -12676,7 +12652,7 @@
         <v>-0.40772000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>1966</v>
       </c>
@@ -12693,7 +12669,7 @@
         <v>-0.35724400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>1966</v>
       </c>
@@ -12710,7 +12686,7 @@
         <v>-0.34992499999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>1966</v>
       </c>
@@ -12727,7 +12703,7 @@
         <v>-0.35352499999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="10">
         <v>1967</v>
       </c>
@@ -12744,7 +12720,7 @@
         <v>-0.16891800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>1967</v>
       </c>
@@ -12761,7 +12737,7 @@
         <v>-0.13009000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="10">
         <v>1967</v>
       </c>
@@ -12778,7 +12754,7 @@
         <v>-0.13758899999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="10">
         <v>1967</v>
       </c>
@@ -12795,7 +12771,7 @@
         <v>-2.5215999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="10">
         <v>1968</v>
       </c>
@@ -12812,7 +12788,7 @@
         <v>-0.19334999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="10">
         <v>1968</v>
       </c>
@@ -12829,7 +12805,7 @@
         <v>-0.37569000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="10">
         <v>1968</v>
       </c>
@@ -12846,7 +12822,7 @@
         <v>-0.43914700000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="10">
         <v>1968</v>
       </c>
@@ -12863,7 +12839,7 @@
         <v>-0.61706300000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="10">
         <v>1969</v>
       </c>
@@ -12880,7 +12856,7 @@
         <v>-0.67584</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="10">
         <v>1969</v>
       </c>
@@ -12897,7 +12873,7 @@
         <v>-0.71482599999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="10">
         <v>1969</v>
       </c>
@@ -12914,7 +12890,7 @@
         <v>-0.66628299999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="10">
         <v>1969</v>
       </c>
@@ -12931,7 +12907,7 @@
         <v>-0.76202199999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="10">
         <v>1970</v>
       </c>
@@ -12948,7 +12924,7 @@
         <v>-0.26677400000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="10">
         <v>1970</v>
       </c>
@@ -12965,7 +12941,7 @@
         <v>0.22187399999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="10">
         <v>1970</v>
       </c>
@@ -12982,7 +12958,7 @@
         <v>0.50650099999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="10">
         <v>1970</v>
       </c>
@@ -12999,7 +12975,7 @@
         <v>1.056214</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="10">
         <v>1971</v>
       </c>
@@ -13016,7 +12992,7 @@
         <v>1.0398050000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="10">
         <v>1971</v>
       </c>
@@ -13033,7 +13009,7 @@
         <v>0.89207199999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="10">
         <v>1971</v>
       </c>
@@ -13050,7 +13026,7 @@
         <v>0.91382799999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="10">
         <v>1971</v>
       </c>
@@ -13067,7 +13043,7 @@
         <v>0.70533000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="10">
         <v>1972</v>
       </c>
@@ -13084,7 +13060,7 @@
         <v>0.43293100000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="10">
         <v>1972</v>
       </c>
@@ -13101,7 +13077,7 @@
         <v>0.26254100000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="10">
         <v>1972</v>
       </c>
@@ -13118,7 +13094,7 @@
         <v>2.6468999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="10">
         <v>1972</v>
       </c>
@@ -13135,7 +13111,7 @@
         <v>-0.276476</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="10">
         <v>1973</v>
       </c>
@@ -13152,7 +13128,7 @@
         <v>-0.81416599999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="10">
         <v>1973</v>
       </c>
@@ -13169,7 +13145,7 @@
         <v>-0.92096900000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="10">
         <v>1973</v>
       </c>
@@ -13186,7 +13162,7 @@
         <v>-1.1640760000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="10">
         <v>1973</v>
       </c>
@@ -13203,7 +13179,7 @@
         <v>-1.310103</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="10">
         <v>1974</v>
       </c>
@@ -13220,7 +13196,7 @@
         <v>-1.0582720000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="10">
         <v>1974</v>
       </c>
@@ -13237,7 +13213,7 @@
         <v>-1.1069850000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="10">
         <v>1974</v>
       </c>
@@ -13254,7 +13230,7 @@
         <v>-0.78731700000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="10">
         <v>1974</v>
       </c>
@@ -13271,7 +13247,7 @@
         <v>7.0347999999999994E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="10">
         <v>1975</v>
       </c>
@@ -13288,7 +13264,7 @@
         <v>1.6361209999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="10">
         <v>1975</v>
       </c>
@@ -13305,7 +13281,7 @@
         <v>2.1467320000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="10">
         <v>1975</v>
       </c>
@@ -13322,7 +13298,7 @@
         <v>1.671225</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="10">
         <v>1975</v>
       </c>
@@ -13339,7 +13315,7 @@
         <v>1.4439679999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="10">
         <v>1976</v>
       </c>
@@ -13356,7 +13332,7 @@
         <v>0.83161600000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="10">
         <v>1976</v>
       </c>
@@ -13373,7 +13349,7 @@
         <v>0.63325600000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="10">
         <v>1976</v>
       </c>
@@ -13390,7 +13366,7 @@
         <v>0.78079100000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="10">
         <v>1976</v>
       </c>
@@ -13407,7 +13383,7 @@
         <v>0.805724</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="10">
         <v>1977</v>
       </c>
@@ -13424,7 +13400,7 @@
         <v>0.53907400000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="10">
         <v>1977</v>
       </c>
@@ -13441,7 +13417,7 @@
         <v>0.17801900000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="10">
         <v>1977</v>
       </c>
@@ -13458,7 +13434,7 @@
         <v>-4.7262999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="10">
         <v>1977</v>
       </c>
@@ -13475,7 +13451,7 @@
         <v>-0.27337400000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="10">
         <v>1978</v>
       </c>
@@ -13492,7 +13468,7 @@
         <v>-0.60355199999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="10">
         <v>1978</v>
       </c>
@@ -13509,7 +13485,7 @@
         <v>-0.94086499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="10">
         <v>1978</v>
       </c>
@@ -13526,7 +13502,7 @@
         <v>-0.92133600000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="10">
         <v>1978</v>
       </c>
@@ -13543,7 +13519,7 @@
         <v>-1.0804020000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="10">
         <v>1979</v>
       </c>
@@ -13560,7 +13536,7 @@
         <v>-1.152922</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="10">
         <v>1979</v>
       </c>
@@ -13577,7 +13553,7 @@
         <v>-1.3730800000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="10">
         <v>1979</v>
       </c>
@@ -13594,7 +13570,7 @@
         <v>-1.2743420000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="10">
         <v>1979</v>
       </c>
@@ -13611,7 +13587,7 @@
         <v>-1.255979</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="10">
         <v>1980</v>
       </c>
@@ -13628,7 +13604,7 @@
         <v>-1.016467</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="10">
         <v>1980</v>
       </c>
@@ -13645,7 +13621,7 @@
         <v>-8.6831000000000005E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="10">
         <v>1980</v>
       </c>
@@ -13662,7 +13638,7 @@
         <v>0.13587299999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="10">
         <v>1980</v>
       </c>
@@ -13679,7 +13655,7 @@
         <v>-0.24535599999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="10">
         <v>1981</v>
       </c>
@@ -13696,7 +13672,7 @@
         <v>-0.32760499999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="10">
         <v>1981</v>
       </c>
@@ -13713,7 +13689,7 @@
         <v>-0.474472</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="10">
         <v>1981</v>
       </c>
@@ -13730,7 +13706,7 @@
         <v>-0.58268799999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="10">
         <v>1981</v>
       </c>
@@ -13747,7 +13723,7 @@
         <v>0.15131700000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="10">
         <v>1982</v>
       </c>
@@ -13764,7 +13740,7 @@
         <v>0.66480799999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="10">
         <v>1982</v>
       </c>
@@ -13781,7 +13757,7 @@
         <v>1.194957</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="10">
         <v>1982</v>
       </c>
@@ -13798,7 +13774,7 @@
         <v>1.6118520000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="10">
         <v>1982</v>
       </c>
@@ -13815,7 +13791,7 @@
         <v>2.351502</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="10">
         <v>1983</v>
       </c>
@@ -13832,7 +13808,7 @@
         <v>2.0489090000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="10">
         <v>1983</v>
       </c>
@@ -13849,7 +13825,7 @@
         <v>1.837604</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="10">
         <v>1983</v>
       </c>
@@ -13866,7 +13842,7 @@
         <v>1.1165050000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="10">
         <v>1983</v>
       </c>
@@ -13883,7 +13859,7 @@
         <v>0.35004800000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="10">
         <v>1984</v>
       </c>
@@ -13900,7 +13876,7 @@
         <v>-0.23136200000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="10">
         <v>1984</v>
       </c>
@@ -13917,7 +13893,7 @@
         <v>-0.56420599999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="10">
         <v>1984</v>
       </c>
@@ -13934,7 +13910,7 @@
         <v>-0.451486</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="10">
         <v>1984</v>
       </c>
@@ -13951,7 +13927,7 @@
         <v>-0.46251999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="10">
         <v>1985</v>
       </c>
@@ -13968,7 +13944,7 @@
         <v>-0.39967399999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="10">
         <v>1985</v>
       </c>
@@ -13985,7 +13961,7 @@
         <v>-0.19836300000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="10">
         <v>1985</v>
       </c>
@@ -14002,7 +13978,7 @@
         <v>-0.160413</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="10">
         <v>1985</v>
       </c>
@@ -14019,7 +13995,7 @@
         <v>-0.187531</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="10">
         <v>1986</v>
       </c>
@@ -14036,7 +14012,7 @@
         <v>-4.7987000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="10">
         <v>1986</v>
       </c>
@@ -14053,7 +14029,7 @@
         <v>0.22339600000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="10">
         <v>1986</v>
       </c>
@@ -14070,7 +14046,7 @@
         <v>0.158496</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="10">
         <v>1986</v>
       </c>
@@ -14087,7 +14063,7 @@
         <v>0.15571399999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="10">
         <v>1987</v>
       </c>
@@ -14104,7 +14080,7 @@
         <v>4.6689000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="10">
         <v>1987</v>
       </c>
@@ -14121,7 +14097,7 @@
         <v>-0.170375</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="10">
         <v>1987</v>
       </c>
@@ -14138,7 +14114,7 @@
         <v>-0.33063199999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="10">
         <v>1987</v>
       </c>
@@ -14155,7 +14131,7 @@
         <v>-0.40246599999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="10">
         <v>1988</v>
       </c>
@@ -14172,7 +14148,7 @@
         <v>-0.45405299999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="10">
         <v>1988</v>
       </c>
@@ -14189,7 +14165,7 @@
         <v>-0.61998500000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="10">
         <v>1988</v>
       </c>
@@ -14206,7 +14182,7 @@
         <v>-0.56790200000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="10">
         <v>1988</v>
       </c>
@@ -14223,7 +14199,7 @@
         <v>-0.66505899999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="10">
         <v>1989</v>
       </c>
@@ -14240,7 +14216,7 @@
         <v>-0.77835299999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="10">
         <v>1989</v>
       </c>
@@ -14257,7 +14233,7 @@
         <v>-0.74093399999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="10">
         <v>1989</v>
       </c>
@@ -14274,7 +14250,7 @@
         <v>-0.75213200000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="10">
         <v>1989</v>
       </c>
@@ -14291,7 +14267,7 @@
         <v>-0.64414700000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="10">
         <v>1990</v>
       </c>
@@ -14308,7 +14284,7 @@
         <v>-0.74870800000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="10">
         <v>1990</v>
       </c>
@@ -14325,7 +14301,7 @@
         <v>-0.76381100000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="10">
         <v>1990</v>
       </c>
@@ -14342,7 +14318,7 @@
         <v>-0.45364700000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="10">
         <v>1990</v>
       </c>
@@ -14359,7 +14335,7 @@
         <v>-8.1932000000000005E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="10">
         <v>1991</v>
       </c>
@@ -14376,7 +14352,7 @@
         <v>0.32123600000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="10">
         <v>1991</v>
       </c>
@@ -14393,7 +14369,7 @@
         <v>0.492475</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="10">
         <v>1991</v>
       </c>
@@ -14410,7 +14386,7 @@
         <v>0.46820600000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="10">
         <v>1991</v>
       </c>
@@ -14427,7 +14403,7 @@
         <v>0.65120400000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="10">
         <v>1992</v>
       </c>
@@ -14444,7 +14420,7 @@
         <v>0.87728899999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="10">
         <v>1992</v>
       </c>
@@ -14461,7 +14437,7 @@
         <v>1.081871</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="10">
         <v>1992</v>
       </c>
@@ -14478,7 +14454,7 @@
         <v>1.0998140000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="10">
         <v>1992</v>
       </c>
@@ -14495,7 +14471,7 @@
         <v>0.83196999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="10">
         <v>1993</v>
       </c>
@@ -14512,7 +14488,7 @@
         <v>0.61184000000000005</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="10">
         <v>1993</v>
       </c>
@@ -14529,7 +14505,7 @@
         <v>0.57240199999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="10">
         <v>1993</v>
       </c>
@@ -14546,7 +14522,7 @@
         <v>0.34625299999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="10">
         <v>1993</v>
       </c>
@@ -14563,7 +14539,7 @@
         <v>0.23230000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="10">
         <v>1994</v>
       </c>
@@ -14580,7 +14556,7 @@
         <v>0.22923199999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="10">
         <v>1994</v>
       </c>
@@ -14597,7 +14573,7 @@
         <v>-6.4408000000000007E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="10">
         <v>1994</v>
       </c>
@@ -14614,7 +14590,7 @@
         <v>-0.18354999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="10">
         <v>1994</v>
       </c>
@@ -14631,7 +14607,7 @@
         <v>-0.463088</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="10">
         <v>1995</v>
       </c>
@@ -14648,7 +14624,7 @@
         <v>-0.53779900000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="10">
         <v>1995</v>
       </c>
@@ -14665,7 +14641,7 @@
         <v>-0.24217</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="10">
         <v>1995</v>
       </c>
@@ -14682,7 +14658,7 @@
         <v>-0.14368700000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="10">
         <v>1995</v>
       </c>
@@ -14699,7 +14675,7 @@
         <v>-0.14301700000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="10">
         <v>1996</v>
       </c>
@@ -14716,7 +14692,7 @@
         <v>-7.4070999999999998E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="10">
         <v>1996</v>
       </c>
@@ -14733,7 +14709,7 @@
         <v>-4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="10">
         <v>1996</v>
       </c>
@@ -14750,7 +14726,7 @@
         <v>-0.13325300000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="10">
         <v>1996</v>
       </c>
@@ -14767,7 +14743,7 @@
         <v>3.7735999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="10">
         <v>1997</v>
       </c>
@@ -14784,7 +14760,7 @@
         <v>7.5277999999999998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="10">
         <v>1997</v>
       </c>
@@ -14801,7 +14777,7 @@
         <v>-8.7674000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="10">
         <v>1997</v>
       </c>
@@ -14818,7 +14794,7 @@
         <v>-0.118213</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="10">
         <v>1997</v>
       </c>
@@ -14835,7 +14811,7 @@
         <v>-0.21671199999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="10">
         <v>1998</v>
       </c>
@@ -14852,7 +14828,7 @@
         <v>-0.1168</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="10">
         <v>1998</v>
       </c>
@@ -14869,7 +14845,7 @@
         <v>-0.25197399999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="10">
         <v>1998</v>
       </c>
@@ -14886,7 +14862,7 @@
         <v>-8.899E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="10">
         <v>1998</v>
       </c>
@@ -14903,7 +14879,7 @@
         <v>-6.1113000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="10">
         <v>1999</v>
       </c>
@@ -14920,7 +14896,7 @@
         <v>-0.101552</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="10">
         <v>1999</v>
       </c>
@@ -14937,7 +14913,7 @@
         <v>-1.0146000000000001E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="10">
         <v>1999</v>
       </c>
@@ -14954,7 +14930,7 @@
         <v>1.3331000000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="10">
         <v>1999</v>
       </c>
@@ -14971,7 +14947,7 @@
         <v>-3.0890000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="10">
         <v>2000</v>
       </c>
@@ -14988,7 +14964,7 @@
         <v>-9.2510000000000005E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="10">
         <v>2000</v>
       </c>
@@ -15005,7 +14981,7 @@
         <v>7.8490000000000004E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="10">
         <v>2000</v>
       </c>
@@ -15022,7 +14998,7 @@
         <v>0.132581</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="10">
         <v>2000</v>
       </c>
@@ -15050,22 +15026,22 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="6"/>
-    <col min="6" max="6" width="23.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.81640625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="11.54296875" style="6"/>
+    <col min="1" max="1" width="12.06640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.73046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" style="6"/>
+    <col min="6" max="6" width="23.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="11.53125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -15091,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -15108,7 +15084,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>22</v>
@@ -15117,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -15137,7 +15113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -15151,7 +15127,7 @@
         <v>2.0481061801648299</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -15165,11 +15141,11 @@
         <v>0.67812467982431401</v>
       </c>
       <c r="K5" s="6" t="str" cm="1">
-        <f t="array" ref="K5:K34">_xll.R.ST_Autoregresivos($D$2:$D$201,$G$1,$G$2,$L$1,$L$2,$L$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="K5:K14">_xll.R.ST_Autoregresivos($D$2:$D$201,$G$1,$G$2,$L$1,$L$2,$L$3)</f>
+        <v>[1] ARMA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -15183,10 +15159,10 @@
         <v>-0.65011996601920297</v>
       </c>
       <c r="K6" s="6" t="str">
-        <v>Call:</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[1.1] PREDICCION ARMA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -15200,14 +15176,14 @@
         <v>0.45015729910318503</v>
       </c>
       <c r="F7" s="6" t="str" cm="1">
-        <f t="array" ref="F7:F12">_xll.R.ST_SeriesTemporales(D2:D201,$G$1,$G$2)</f>
-        <v/>
+        <f t="array" ref="F7:F13">_xll.R.ST_SeriesTemporales(D2:D201,$G$1,$G$2)</f>
+        <v>[1] TEST PHILLIPS-OULIARIS</v>
       </c>
       <c r="K7" s="6" t="str">
-        <v>tseries::garch(x = DatosXts, order = c(OrdenP, OrdenQ))</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[2] ARIMA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -15221,13 +15197,13 @@
         <v>-1.7620290740532001</v>
       </c>
       <c r="F8" s="6" t="str">
-        <v xml:space="preserve">	Jarque Bera Test</v>
+        <v>[2] TEST ADF</v>
       </c>
       <c r="K8" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[2.1] PREDICCION ARiMA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -15241,13 +15217,13 @@
         <v>-0.868228712780857</v>
       </c>
       <c r="F9" s="6" t="str">
-        <v/>
+        <v>[3] TEST PHILLIPS-PERRON</v>
       </c>
       <c r="K9" s="6" t="str">
-        <v>Model:</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[3] SARiMA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -15261,13 +15237,13 @@
         <v>-1.23984354808621</v>
       </c>
       <c r="F10" s="6" t="str">
-        <v>data:  DatosXts</v>
+        <v>[4] TEST JARQUE BERA</v>
       </c>
       <c r="K10" s="6" t="str">
-        <v>GARCH(1,2)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[3.1] PREDICCION SARiMA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -15281,13 +15257,13 @@
         <v>-1.5914574024347199</v>
       </c>
       <c r="F11" s="6" t="str">
-        <v>X-squared = 20.623, df = 2, p-value = 3.326e-05</v>
+        <v>[5] AUTOCORRELACIÓN</v>
       </c>
       <c r="K11" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[4] GARCH</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -15301,13 +15277,13 @@
         <v>-1.5245739811163499</v>
       </c>
       <c r="F12" s="6" t="str">
-        <v/>
+        <v>[6] DESCOMPOSICIÓN ST MODELO ADITIVO</v>
       </c>
       <c r="K12" s="6" t="str">
-        <v>Residuals:</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[4.1] PREDICCION GARCH</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -15320,11 +15296,14 @@
       <c r="D13" s="15">
         <v>0.57613586820712104</v>
       </c>
+      <c r="F13" s="6" t="str">
+        <v>[7] DESCOMPOSICIÓN ST MODELO MULTIPLICATIVO</v>
+      </c>
       <c r="K13" s="6" t="str">
-        <v xml:space="preserve">    Min      1Q  Median      3Q     Max </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[5] E-GARCH</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -15338,10 +15317,10 @@
         <v>-0.63642334678215995</v>
       </c>
       <c r="K14" s="6" t="str">
-        <v xml:space="preserve">-0.9176 -0.8164 -0.7389 -0.5026  0.3054 </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>[5.1] PREDICCION E-GARCH</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -15354,11 +15333,8 @@
       <c r="D15" s="15">
         <v>-2.5656824758868901</v>
       </c>
-      <c r="K15" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -15371,11 +15347,8 @@
       <c r="D16" s="15">
         <v>-2.2343294046708202</v>
       </c>
-      <c r="K16" s="6" t="str">
-        <v>Coefficient(s):</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -15388,11 +15361,8 @@
       <c r="D17" s="15">
         <v>-1.48258461715992</v>
       </c>
-      <c r="K17" s="6" t="str">
-        <v xml:space="preserve">    Estimate  Std. Error  t value Pr(&gt;|t|)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -15405,11 +15375,8 @@
       <c r="D18" s="15">
         <v>-1.1200798099139599</v>
       </c>
-      <c r="K18" s="6" t="str">
-        <v>a0 4.276e+01   4.431e+01    0.965    0.335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -15422,11 +15389,8 @@
       <c r="D19" s="15">
         <v>-1.13006978381996</v>
       </c>
-      <c r="K19" s="6" t="str">
-        <v>a1 6.939e-01   2.272e+00    0.305    0.760</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -15439,11 +15403,8 @@
       <c r="D20" s="15">
         <v>-2.79584318214726</v>
       </c>
-      <c r="K20" s="6" t="str">
-        <v>a2 6.872e-01   2.480e+00    0.277    0.782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -15456,11 +15417,8 @@
       <c r="D21" s="15">
         <v>-3.7628037504880698</v>
       </c>
-      <c r="K21" s="6" t="str">
-        <v>b1 8.203e-13   8.674e-01    0.000    1.000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -15473,11 +15431,8 @@
       <c r="D22" s="15">
         <v>-2.6947317985084398</v>
       </c>
-      <c r="K22" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -15490,11 +15445,8 @@
       <c r="D23" s="15">
         <v>-2.69329388747654</v>
       </c>
-      <c r="K23" s="6" t="str">
-        <v>Diagnostic Tests:</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -15507,11 +15459,8 @@
       <c r="D24" s="15">
         <v>-3.9567865992550102</v>
       </c>
-      <c r="K24" s="6" t="str">
-        <v xml:space="preserve">	Jarque Bera Test</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -15524,11 +15473,8 @@
       <c r="D25" s="15">
         <v>-1.3306337847184799</v>
       </c>
-      <c r="K25" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -15541,11 +15487,8 @@
       <c r="D26" s="15">
         <v>-1.9021711206424701</v>
       </c>
-      <c r="K26" s="6" t="str">
-        <v>data:  Residuals</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -15559,11 +15502,8 @@
         <v>-2.9037522752561</v>
       </c>
       <c r="F27" s="26"/>
-      <c r="K27" s="6" t="str">
-        <v>X-squared = 75.137, df = 2, p-value &lt; 2.2e-16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -15576,11 +15516,8 @@
       <c r="D28" s="15">
         <v>-4.4778970577753796</v>
       </c>
-      <c r="K28" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -15593,11 +15530,8 @@
       <c r="D29" s="15">
         <v>-4.8015214455786897</v>
       </c>
-      <c r="K29" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -15610,11 +15544,8 @@
       <c r="D30" s="15">
         <v>-1.7381796523997499</v>
       </c>
-      <c r="K30" s="6" t="str">
-        <v xml:space="preserve">	Box-Ljung test</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -15627,11 +15558,8 @@
       <c r="D31" s="15">
         <v>-2.7824744078217201</v>
       </c>
-      <c r="K31" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -15644,11 +15572,8 @@
       <c r="D32" s="15">
         <v>-4.2448670104275399</v>
       </c>
-      <c r="K32" s="6" t="str">
-        <v>data:  Squared.Residuals</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -15661,11 +15586,8 @@
       <c r="D33" s="15">
         <v>-3.28264896245327</v>
       </c>
-      <c r="K33" s="6" t="str">
-        <v>X-squared = 150.69, df = 1, p-value &lt; 2.2e-16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -15678,11 +15600,8 @@
       <c r="D34" s="15">
         <v>-2.7496048485212801</v>
       </c>
-      <c r="K34" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -15696,7 +15615,7 @@
         <v>-3.3464014838241298</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -15710,7 +15629,7 @@
         <v>-3.9167622949876999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -15724,7 +15643,7 @@
         <v>-2.4378735909222602</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -15738,7 +15657,7 @@
         <v>-3.6189582310210402</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -15752,7 +15671,7 @@
         <v>-2.6630654438585899</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -15766,7 +15685,7 @@
         <v>-3.7986854924816198</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -15780,7 +15699,7 @@
         <v>-4.2639212019492403</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -15794,7 +15713,7 @@
         <v>-5.8144003149841597</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -15808,7 +15727,7 @@
         <v>-4.1921345528618001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -15822,7 +15741,7 @@
         <v>-4.9197367034586801</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -15836,7 +15755,7 @@
         <v>-4.2227313615896804</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -15850,7 +15769,7 @@
         <v>-3.9611608228267001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -15864,7 +15783,7 @@
         <v>-4.6993168575959396</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -15878,7 +15797,7 @@
         <v>-4.4652707395154501</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -15892,7 +15811,7 @@
         <v>-3.9624865428837799</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -15906,7 +15825,7 @@
         <v>-3.7044289493909002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -15920,7 +15839,7 @@
         <v>-5.2357231409602898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -15934,7 +15853,7 @@
         <v>-5.6693632505183897</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -15948,7 +15867,7 @@
         <v>-4.2960601479560303</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -15962,7 +15881,7 @@
         <v>-3.34355730280231</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -15976,7 +15895,7 @@
         <v>-3.5865134468398101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -15990,7 +15909,7 @@
         <v>-4.8502775875715596</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -16004,7 +15923,7 @@
         <v>-4.20933569266177</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -16018,7 +15937,7 @@
         <v>-4.24777438127997</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -16032,7 +15951,7 @@
         <v>-3.7086468609953398</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -16046,7 +15965,7 @@
         <v>-3.1962899343886102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -16060,7 +15979,7 @@
         <v>-3.8925167923450199</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -16074,7 +15993,7 @@
         <v>-4.1840934076195504</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -16088,7 +16007,7 @@
         <v>-5.5684216590159403</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -16102,7 +16021,7 @@
         <v>-4.7180313120078399</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -16116,7 +16035,7 @@
         <v>-3.9828285664407499</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -16130,7 +16049,7 @@
         <v>-4.92863243817966</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -16144,7 +16063,7 @@
         <v>-5.3874352082839696</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -16158,7 +16077,7 @@
         <v>-6.0554230894809704</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -16172,7 +16091,7 @@
         <v>-6.2725962018419397</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -16186,7 +16105,7 @@
         <v>-5.21715611499876</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -16200,7 +16119,7 @@
         <v>-5.6312906655911297</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -16214,7 +16133,7 @@
         <v>-4.5556620548266702</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -16228,7 +16147,7 @@
         <v>-4.5326900158762697</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -16242,7 +16161,7 @@
         <v>-5.10970605259865</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -16256,7 +16175,7 @@
         <v>-3.91009844051842</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -16270,7 +16189,7 @@
         <v>-1.4500686832302101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -16284,7 +16203,7 @@
         <v>-2.3638391029115402</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -16298,7 +16217,7 @@
         <v>-3.4493554541268301</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -16312,7 +16231,7 @@
         <v>-4.1708507431964303</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -16326,7 +16245,7 @@
         <v>-3.6445218894489901</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -16340,7 +16259,7 @@
         <v>-5.5328536834522302</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -16354,7 +16273,7 @@
         <v>-5.5299905521365904</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -16368,7 +16287,7 @@
         <v>-5.5909886751486697</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -16382,7 +16301,7 @@
         <v>-4.6441634227502604</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -16396,7 +16315,7 @@
         <v>-4.7497661212908397</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -16410,7 +16329,7 @@
         <v>-5.80789785099625</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -16424,7 +16343,7 @@
         <v>-4.8868168494445898</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -16438,7 +16357,7 @@
         <v>-5.9413186424982198</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -16452,7 +16371,7 @@
         <v>-4.2516653848670396</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -16466,7 +16385,7 @@
         <v>-7.1055165559232503</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -16480,7 +16399,7 @@
         <v>-6.6552934215812902</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -16494,7 +16413,7 @@
         <v>-5.2123485654811796</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -16508,7 +16427,7 @@
         <v>-7.7648414266510004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -16522,7 +16441,7 @@
         <v>-7.9780912067268304</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -16536,7 +16455,7 @@
         <v>-8.7437918957373899</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -16550,7 +16469,7 @@
         <v>-8.0789392775998294</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -16564,7 +16483,7 @@
         <v>-7.4431751455708604</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -16578,7 +16497,7 @@
         <v>-9.2119882144659506</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -16592,7 +16511,7 @@
         <v>-9.7141353276709594</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -16606,7 +16525,7 @@
         <v>-9.4447073216282291</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -16620,7 +16539,7 @@
         <v>-8.7558092623466308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -16634,7 +16553,7 @@
         <v>-9.8005468669193601</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -16648,7 +16567,7 @@
         <v>-8.9203317869739696</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="18">
         <v>103</v>
       </c>
@@ -16662,7 +16581,7 @@
         <v>-9.0931413016324605</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -16676,7 +16595,7 @@
         <v>-9.7212368901645707</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -16690,7 +16609,7 @@
         <v>-9.66604556405861</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -16704,7 +16623,7 @@
         <v>-8.1481623146090296</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -16718,7 +16637,7 @@
         <v>-9.8081661747890401</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -16732,7 +16651,7 @@
         <v>-9.8495204769924101</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -16746,7 +16665,7 @@
         <v>-10.1869120841744</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -16760,7 +16679,7 @@
         <v>-10.4162701391485</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -16774,7 +16693,7 @@
         <v>-10.5724974790815</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -16788,7 +16707,7 @@
         <v>-10.8806688486862</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -16802,7 +16721,7 @@
         <v>-10.1340534130513</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -16816,7 +16735,7 @@
         <v>-11.555597647809201</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -16830,7 +16749,7 @@
         <v>-10.1933357144305</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -16844,7 +16763,7 @@
         <v>-11.6500799871745</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -16858,7 +16777,7 @@
         <v>-11.983553129706401</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -16872,7 +16791,7 @@
         <v>-11.8846098444013</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -16886,7 +16805,7 @@
         <v>-13.3170701171122</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -16900,7 +16819,7 @@
         <v>-13.973423679588899</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="18">
         <v>121</v>
       </c>
@@ -16914,7 +16833,7 @@
         <v>-14.9966081081692</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -16928,7 +16847,7 @@
         <v>-14.7236623999739</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -16942,7 +16861,7 @@
         <v>-14.3987784264275</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="18">
         <v>124</v>
       </c>
@@ -16956,7 +16875,7 @@
         <v>-15.186961943445599</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="18">
         <v>125</v>
       </c>
@@ -16970,7 +16889,7 @@
         <v>-14.3524415617323</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="18">
         <v>126</v>
       </c>
@@ -16984,7 +16903,7 @@
         <v>-15.803263595291901</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="18">
         <v>127</v>
       </c>
@@ -16998,7 +16917,7 @@
         <v>-15.8702564879055</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="18">
         <v>128</v>
       </c>
@@ -17012,7 +16931,7 @@
         <v>-17.8463471799205</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="18">
         <v>129</v>
       </c>
@@ -17026,7 +16945,7 @@
         <v>-17.654351668581</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="18">
         <v>130</v>
       </c>
@@ -17040,7 +16959,7 @@
         <v>-19.716777603105498</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="18">
         <v>131</v>
       </c>
@@ -17054,7 +16973,7 @@
         <v>-18.6742131639161</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="18">
         <v>132</v>
       </c>
@@ -17068,7 +16987,7 @@
         <v>-19.5606508227314</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="18">
         <v>133</v>
       </c>
@@ -17082,7 +17001,7 @@
         <v>-19.041098148075601</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="18">
         <v>134</v>
       </c>
@@ -17096,7 +17015,7 @@
         <v>-18.275567161367199</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="18">
         <v>135</v>
       </c>
@@ -17110,7 +17029,7 @@
         <v>-17.577546067248502</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="18">
         <v>136</v>
       </c>
@@ -17124,7 +17043,7 @@
         <v>-17.2810899958574</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="18">
         <v>137</v>
       </c>
@@ -17138,7 +17057,7 @@
         <v>-17.9134039861686</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="18">
         <v>138</v>
       </c>
@@ -17152,7 +17071,7 @@
         <v>-17.077733832192699</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="18">
         <v>139</v>
       </c>
@@ -17166,7 +17085,7 @@
         <v>-15.4697280977765</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="18">
         <v>140</v>
       </c>
@@ -17180,7 +17099,7 @@
         <v>-17.301112414074801</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="18">
         <v>141</v>
       </c>
@@ -17194,7 +17113,7 @@
         <v>-17.0557420671371</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="18">
         <v>142</v>
       </c>
@@ -17208,7 +17127,7 @@
         <v>-16.677424689287399</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="18">
         <v>143</v>
       </c>
@@ -17222,7 +17141,7 @@
         <v>-16.217465467957101</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="18">
         <v>144</v>
       </c>
@@ -17236,7 +17155,7 @@
         <v>-16.784878970074601</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="18">
         <v>145</v>
       </c>
@@ -17250,7 +17169,7 @@
         <v>-16.5358506965365</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="18">
         <v>146</v>
       </c>
@@ -17264,7 +17183,7 @@
         <v>-16.895073548967801</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="18">
         <v>147</v>
       </c>
@@ -17278,7 +17197,7 @@
         <v>-17.219813386668701</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="18">
         <v>148</v>
       </c>
@@ -17292,7 +17211,7 @@
         <v>-17.2076733475574</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="18">
         <v>149</v>
       </c>
@@ -17306,7 +17225,7 @@
         <v>-16.6567913287025</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="18">
         <v>150</v>
       </c>
@@ -17320,7 +17239,7 @@
         <v>-17.610374363481299</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="18">
         <v>151</v>
       </c>
@@ -17334,7 +17253,7 @@
         <v>-16.844857146717899</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="18">
         <v>152</v>
       </c>
@@ -17348,7 +17267,7 @@
         <v>-16.814122461560899</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="18">
         <v>153</v>
       </c>
@@ -17362,7 +17281,7 @@
         <v>-15.4089144940815</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="18">
         <v>154</v>
       </c>
@@ -17376,7 +17295,7 @@
         <v>-16.3682210115646</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="18">
         <v>155</v>
       </c>
@@ -17390,7 +17309,7 @@
         <v>-14.6098029953059</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="18">
         <v>156</v>
       </c>
@@ -17404,7 +17323,7 @@
         <v>-16.185192186291101</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="18">
         <v>157</v>
       </c>
@@ -17418,7 +17337,7 @@
         <v>-17.6793978594119</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="18">
         <v>158</v>
       </c>
@@ -17432,7 +17351,7 @@
         <v>-18.180850977865401</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="18">
         <v>159</v>
       </c>
@@ -17446,7 +17365,7 @@
         <v>-17.706086209741301</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="18">
         <v>160</v>
       </c>
@@ -17460,7 +17379,7 @@
         <v>-18.103785400302002</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="18">
         <v>161</v>
       </c>
@@ -17474,7 +17393,7 @@
         <v>-19.715575423075801</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="18">
         <v>162</v>
       </c>
@@ -17488,7 +17407,7 @@
         <v>-20.047190667930799</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="18">
         <v>163</v>
       </c>
@@ -17502,7 +17421,7 @@
         <v>-19.7924309619311</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="18">
         <v>164</v>
       </c>
@@ -17516,7 +17435,7 @@
         <v>-18.9538809649871</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="18">
         <v>165</v>
       </c>
@@ -17530,7 +17449,7 @@
         <v>-20.5339238911045</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="18">
         <v>166</v>
       </c>
@@ -17544,7 +17463,7 @@
         <v>-21.492451224019099</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="18">
         <v>167</v>
       </c>
@@ -17558,7 +17477,7 @@
         <v>-21.570064926368399</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="18">
         <v>168</v>
       </c>
@@ -17572,7 +17491,7 @@
         <v>-20.690154134201801</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="18">
         <v>169</v>
       </c>
@@ -17586,7 +17505,7 @@
         <v>-19.807505213161299</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="18">
         <v>170</v>
       </c>
@@ -17600,7 +17519,7 @@
         <v>-20.357448724602801</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="18">
         <v>171</v>
       </c>
@@ -17614,7 +17533,7 @@
         <v>-18.938371762185302</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="18">
         <v>172</v>
       </c>
@@ -17628,7 +17547,7 @@
         <v>-19.897110922605901</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="18">
         <v>173</v>
       </c>
@@ -17642,7 +17561,7 @@
         <v>-19.635350738652999</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="18">
         <v>174</v>
       </c>
@@ -17656,7 +17575,7 @@
         <v>-20.382610399179299</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="18">
         <v>175</v>
       </c>
@@ -17670,7 +17589,7 @@
         <v>-20.675041175602601</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="18">
         <v>176</v>
       </c>
@@ -17684,7 +17603,7 @@
         <v>-18.876803941016899</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="18">
         <v>177</v>
       </c>
@@ -17698,7 +17617,7 @@
         <v>-20.239859618469399</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="18">
         <v>178</v>
       </c>
@@ -17712,7 +17631,7 @@
         <v>-19.889491966794001</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="18">
         <v>179</v>
       </c>
@@ -17726,7 +17645,7 @@
         <v>-20.4317923095381</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="18">
         <v>180</v>
       </c>
@@ -17740,7 +17659,7 @@
         <v>-20.2474409434565</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="18">
         <v>181</v>
       </c>
@@ -17754,7 +17673,7 @@
         <v>-19.833687336541999</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="18">
         <v>182</v>
       </c>
@@ -17768,7 +17687,7 @@
         <v>-18.611433945105599</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="18">
         <v>183</v>
       </c>
@@ -17782,7 +17701,7 @@
         <v>-18.448266310543602</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="18">
         <v>184</v>
       </c>
@@ -17796,7 +17715,7 @@
         <v>-18.659968436262201</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="18">
         <v>185</v>
       </c>
@@ -17810,7 +17729,7 @@
         <v>-18.472353544198</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="18">
         <v>186</v>
       </c>
@@ -17824,7 +17743,7 @@
         <v>-17.342890469433101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="18">
         <v>187</v>
       </c>
@@ -17838,7 +17757,7 @@
         <v>-19.287609308265999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="18">
         <v>188</v>
       </c>
@@ -17852,7 +17771,7 @@
         <v>-18.6769647158415</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="18">
         <v>189</v>
       </c>
@@ -17866,7 +17785,7 @@
         <v>-19.4740355989235</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="18">
         <v>190</v>
       </c>
@@ -17880,7 +17799,7 @@
         <v>-20.3095379206862</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="18">
         <v>191</v>
       </c>
@@ -17894,7 +17813,7 @@
         <v>-20.070374523569001</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="18">
         <v>192</v>
       </c>
@@ -17908,7 +17827,7 @@
         <v>-20.193891260570801</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="18">
         <v>193</v>
       </c>
@@ -17922,7 +17841,7 @@
         <v>-19.520366035087701</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="18">
         <v>194</v>
       </c>
@@ -17936,7 +17855,7 @@
         <v>-20.463284903580099</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="18">
         <v>195</v>
       </c>
@@ -17950,7 +17869,7 @@
         <v>-19.085537048627099</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="18">
         <v>196</v>
       </c>
@@ -17964,7 +17883,7 @@
         <v>-20.472526219182999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="18">
         <v>197</v>
       </c>
@@ -17978,7 +17897,7 @@
         <v>-19.369452945024801</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="18">
         <v>198</v>
       </c>
@@ -17992,7 +17911,7 @@
         <v>-19.3789222098377</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="18">
         <v>199</v>
       </c>
@@ -18006,7 +17925,7 @@
         <v>-19.2863665212348</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="18">
         <v>200</v>
       </c>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-SeriesDeTiempo.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-SeriesDeTiempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B69EB-EFC1-4CCE-A405-55DD367BE32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035B9B90-C7E1-4723-B041-D4F4638926F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="14558" windowHeight="15563" firstSheet="4" activeTab="6" xr2:uid="{28A30C67-605A-4F02-AD05-70F6C6E51D35}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="4" activeTab="5" xr2:uid="{28A30C67-605A-4F02-AD05-70F6C6E51D35}"/>
   </bookViews>
   <sheets>
     <sheet name="LEER PRIMERO" sheetId="16" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="APOYO" sheetId="22" r:id="rId3"/>
     <sheet name="ST Descomponer" sheetId="12" r:id="rId4"/>
     <sheet name="ST AutoRegresivos" sheetId="25" r:id="rId5"/>
-    <sheet name="ST Filtro" sheetId="11" r:id="rId6"/>
-    <sheet name="ST Cointegracion" sheetId="13" r:id="rId7"/>
+    <sheet name="GARCH" sheetId="26" r:id="rId6"/>
+    <sheet name="ST Filtro" sheetId="11" r:id="rId7"/>
+    <sheet name="ST Cointegracion" sheetId="13" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACP_OUT_01">#REF!</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +153,9 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>dax</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +167,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +244,14 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -273,12 +285,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -294,7 +321,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -365,6 +392,15 @@
     <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hipervínculo 2" xfId="4" xr:uid="{8DF25256-F961-480B-B36D-1FB2351A9BAE}"/>
@@ -9150,7 +9186,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12107,6 +12143,9454 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CE892B-61D5-475A-A8B2-3B95A1CCB57E}">
+  <dimension ref="A1:D1860"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="44.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>-9.326550003611267E-3</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-4.4221751867965509E-3</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>9.0037943084269045E-3</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>-1.778217312233821E-3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-4.6767120364092918E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.242704246777482E-2</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7:C39">_xll.R.ST_Autoregresivos($A$2:$A$1860,$D$1,$D$2,$D$3,$D$4,$D$5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5.7598633064488416E-3</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Call:</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-2.8696701868193841E-3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>tseries::garch(x = DatosXts, order = c(OrdenP, OrdenQ))</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>6.3510465324672083E-3</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1.184068049188802E-3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Model:</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-5.7757015760984132E-3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>GARCH(2,2)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>-5.1525687080147256E-3</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>-5.1915894942231589E-3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Residuals:</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2.0023233633175148E-3</v>
+      </c>
+      <c r="C15" t="str">
+        <v xml:space="preserve">     Min       1Q   Median       3Q      Max </v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1.777166042380429E-3</v>
+      </c>
+      <c r="C16" t="str">
+        <v xml:space="preserve">-11.3278  -0.4681   0.0471   0.6492   5.1705 </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2.6751600494465681E-3</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>-6.645849917075175E-3</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Coefficient(s):</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>-4.7981295292061077E-3</v>
+      </c>
+      <c r="C19" t="str">
+        <v xml:space="preserve">    Estimate  Std. Error  t value Pr(&gt;|t|)    </v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>-5.2635461771304293E-3</v>
+      </c>
+      <c r="C20" t="str">
+        <v>a0 1.386e-05   1.563e-06    8.869  &lt; 2e-16 ***</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4.9833370701435342E-4</v>
+      </c>
+      <c r="C21" t="str">
+        <v>a1 8.417e-02   1.977e-02    4.257 2.07e-05 ***</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>6.7775409790620236E-3</v>
+      </c>
+      <c r="C22" t="str">
+        <v>a2 2.089e-01   2.916e-02    7.165 7.78e-13 ***</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1.6193034354570199E-3</v>
+      </c>
+      <c r="C23" t="str">
+        <v xml:space="preserve">b1 6.454e-02   7.894e-02    0.818    0.414    </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>7.4079107524394061E-4</v>
+      </c>
+      <c r="C24" t="str">
+        <v>b2 5.591e-01   8.236e-02    6.788 1.13e-11 ***</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>-5.0614785535607609E-4</v>
+      </c>
+      <c r="C25" t="str">
+        <v>---</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2.09699281837139E-3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>-5.6162394112924119E-3</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1.1023418309142659E-2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Diagnostic Tests:</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>-9.1961358190140174E-4</v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve">	Jarque Bera Test</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1.899603492937274E-3</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>-4.2453791040548694E-3</v>
+      </c>
+      <c r="C31" t="str">
+        <v>data:  Residuals</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1.4574652707859849E-2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>X-squared = 9059.4, df = 2, p-value &lt; 2.2e-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>-2.2420913352227961E-4</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2.4514489437530429E-3</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>-3.0837044604403729E-4</v>
+      </c>
+      <c r="C35" t="str">
+        <v xml:space="preserve">	Box-Ljung test</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>-9.6277023437939313E-2</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1.484446147534868E-2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>data:  Squared.Residuals</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>5.0760113722651212E-2</v>
+      </c>
+      <c r="C38" t="str">
+        <v>X-squared = 0.28063, df = 1, p-value = 0.5963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>1.167972510343596E-2</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>8.7077934957298098E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>9.3774062097606858E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>-3.8145417109651798E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2.760781689036484E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>7.2079496504873219E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>-1.0116829025221821E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>2.2037909264378541E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>2.410127320740862E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>-4.8139527992683284E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>-2.7890282236420211E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>-1.626460683235464E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>-4.7244278239881874E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>-7.8727297829939147E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>1.745308391558176E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>2.1957406563588582E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>8.7572382941658589E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>-1.519226467000756E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>2.834432578069368E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>-8.9221885859398498E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>2.1133906207708719E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>-5.2887809456789734E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>1.2305791148641281E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>5.9644283880508908E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>-1.2355584174441601E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>-6.7827414967114308E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>-1.2393111017354741E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>-4.5552502897363567E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>2.395180923535634E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>-1.143994156099559E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>-1.612516964865307E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>-9.8748145101374973E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>-4.3198790766947326E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>-9.0659804640562669E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>1.084131818736012E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>9.8793138407149428E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>1.292397003012979E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>8.6597630316616048E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>-9.7610601907947014E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>-5.1853623641839866E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>2.1042069502277272E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>3.2913230712008361E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>4.2321515569732071E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>8.3920815573232943E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>-1.1109785121010241E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>-4.1338213951114261E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>4.5188350791658394E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>6.0228975724392342E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>-1.7135265662897581E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>-3.9421615406816102E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>-4.5616841201212566E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>-2.859264462015787E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>6.43297517705399E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>-2.70926358952206E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>5.1457654736264402E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>1.7618178687956561E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>-3.1225339023812641E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>1.1570274631437449E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>-5.2977802892906212E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>7.2910628510003406E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>-6.7608057676693534E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>-1.315959064890215E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>-1.001447938881306E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>8.4937371731168554E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>-2.1916893203730581E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>-5.5726165252831814E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>7.9139896389230913E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>-8.5427781100548827E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>-1.220978318833055E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>-1.0674432943759801E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>-1.3618208006052511E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>-2.9040033503324741E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>3.4084974736146019E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>1.8443727775636629E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>-1.419930013085491E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>2.8570805966339212E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>-7.2839907663215797E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>-2.8779976080715031E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>4.0204307273397077E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>4.3897548639630912E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>-3.3775013531140981E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>7.1340123476604234E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>4.7172759243476747E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>-7.0425976645935862E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>-8.6244910825898913E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>-2.0073566624461141E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>1.383975949639815E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>8.2699029030388616E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>1.3182574501803931E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>3.659942128828142E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>3.9891048105289428E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>-6.9036086513580841E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>-7.5394095735159539E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>1.0978411456339821E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>9.1380547240786925E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>4.0998489840600172E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>5.5754676794776969E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>2.076468155511613E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>2.3438979129419829E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>3.1199588514523309E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>9.4502600799755143E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>1.1446500726393081E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>-4.1221251051242191E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>-4.9463550701336354E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>-1.3886563392260241E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>1.0243726036405221E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>-7.1169736888521129E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>-8.6399545961528545E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>7.1853311612812831E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>1.5673426070392791E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>-2.3729296190211361E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>-4.0957960973813101E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>4.2085052396947384E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>-1.270195685918907E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>1.709047088390925E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>-1.697168628789214E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>-2.729812838643042E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>3.501610214847517E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>-2.507547721346981E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>-2.7643911818664439E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>7.3054420005744802E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>4.7799063536126951E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>-3.7262465645344629E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>1.2412002041775951E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>-3.5060654936636133E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>1.0793008306189121E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>-7.677413823481416E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>1.5451219102724069E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>1.037686453845055E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>9.1067123904853275E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>1.447347973660307E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>8.294598030259337E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>-9.0183862067672038E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>1.1348934335408961E-5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>-8.8457314490355543E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>3.8454223778128238E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>-1.6539719603869679E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>-7.6322480710908644E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>-9.2153778784469509E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>6.0722961094992201E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>-6.530659065552058E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>5.6654424478708174E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>-1.750024271214734E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>-2.4018786705291011E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>2.9855604476232141E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>-9.7125059957567927E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>1.183545936424224E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>1.665085414659373E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>-4.9457855642831561E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>-1.1337386036846199E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>9.3274639219202982E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>2.0913989406334821E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>-6.8087059099752878E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>9.7258540567821683E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>-4.1807855520703541E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>1.308282721137477E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>-7.8821932686690133E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>-1.311653771699106E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>5.5074128523457944E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>5.511854579483888E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>-2.1999414138047508E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>2.5978389056682261E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>5.6858676642557171E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>1.449346186230827E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>3.3768798523770022E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>3.2166217811981919E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>-4.5336772649999801E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>3.1510589250949289E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>-1.605210397880086E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>-6.4698320426215261E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>-2.8877864162879519E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>-1.7865045641629611E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>1.850043020835912E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>1.4602713619931149E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>6.8743804457671587E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>3.8818348800653268E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>-2.5366368902073329E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>1.4690627793880751E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>-1.5949194631161841E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>-1.21361322392044E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>-6.0038156517379093E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>-8.9255815022202256E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>2.5073726149810401E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>1.7958564176145939E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>1.049511907994471E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>-1.031112796457734E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>1.1627843540857439E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>4.3740997368715284E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>-7.0989046236942244E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>-3.7357621161220318E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>7.5351271736963099E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>-4.5109228988895467E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>1.328202259808009E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>-8.0461902644319849E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>2.8846657637133788E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>-1.2847728278249091E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>-2.4288156639080678E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>2.652373021272858E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>-5.4410238486362061E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>4.0541619042899768E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>-7.7074270236101583E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>4.7090416623429832E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>-4.4271132702871094E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>1.45911819673028E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>-3.16882415450781E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>9.4267472568976274E-4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>-5.5672941638009732E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>1.020726505589487E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>-6.5507259767771941E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>1.7954810013849349E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>-5.8673914293283502E-4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>2.816622770537514E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>-3.4093427358605772E-5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>9.4222406522748159E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>-3.6768893920742229E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>-1.6963724324954299E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>-8.3483707237901328E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>4.4868913639648511E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>-5.6117669325992381E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>-1.0845196137813319E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>2.3478861072003809E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>-9.6271643332812573E-4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>-1.766427946307658E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>-1.826162040886814E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>-2.789418869158844E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>8.3464381281750377E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>-1.0501782985584461E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>-8.5900111584997774E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>-5.8402536705290942E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>2.7358782083011231E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>-3.7094740391196979E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>1.256007663115266E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>-9.4607156308841311E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>-8.4874019488232477E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>-2.1035606462316281E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>2.7996235685900932E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>9.4789783954620788E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>-4.2368110346231447E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>-3.7832511076958402E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>-2.069076071979303E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>-1.118361898622222E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>-8.6966578618614676E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>4.9087680624015917E-4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>7.4177109855231294E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>-3.467187221259493E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>-1.4831981562387851E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>-3.747539547635625E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>-1.127461146958986E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>1.3820282751450639E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>-2.9892773024852382E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>-1.420166289795333E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>7.5396561498539683E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>2.742187647806027E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>2.3519269293128531E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>6.7417606792998797E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>-8.8826447925178798E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>-6.0026980961236376E-4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>1.853999277448715E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>-5.9572515644248369E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>2.563953795767127E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>-1.268140263662509E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>-8.4168650229869968E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>2.1436094909779162E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>2.0279338386162138E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>4.5542244251461028E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>-1.333231556659786E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>9.321786476713001E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>-9.8408132498910561E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>1.328296354686387E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>-2.1847713705552611E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>-5.757282129795982E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>-9.2072591723990627E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>-4.1831281119391051E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>-1.6830286729230259E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>-1.980884976135755E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>1.8887912632798991E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>-9.3029595208706795E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>9.9429897251956945E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>-6.3306958634354871E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>-5.0793647357624927E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>1.356334735136855E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>9.187418008234971E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>8.1293641215847146E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>-6.0125633200218687E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>2.7229613729238271E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>2.064462773381948E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>-1.2093434553753999E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>-1.100511050928787E-4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>2.905411394011459E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>1.46856714564132E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>1.6954783458738909E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>-5.5640288408440597E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>9.6159063027867475E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>1.17506763510189E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>3.3693810280990282E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>1.680442781676561E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>-1.866192710733738E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>-9.761115303541068E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>-2.5878092491486981E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>-4.871952896026599E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>6.0692298661813027E-4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>-8.6462211468578687E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>9.6569416070018121E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>1.931002601670784E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>1.396392928290169E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>4.3916866775273178E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>-3.589955956458724E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>2.125815606988013E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>-3.1776192117760621E-4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>4.4743165255400902E-4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>5.0375985606043727E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>-4.4607720624414426E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>2.8920734053148318E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>-1.5771328311388721E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>2.0063607032083648E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>-8.7234525764774418E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>6.3232153353407483E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>4.3698946930286198E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>1.0036476740277861E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>1.0996333507780069E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>-1.216298889514178E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>1.654260096026761E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>-2.8787353453560982E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>-4.445575379104838E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>-8.4795278957283671E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>-1.56096944630324E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>-1.5846493171770781E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>-2.6713120522785521E-3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>9.2731420596070535E-4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>1.048115348055489E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>-1.399987378537304E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>-3.3625554539566949E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>1.5504708901707961E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>1.4503830358706621E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>2.29069538485227E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>4.0223283310201197E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>1.3302869395875661E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>-1.092673699957913E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>-4.7920980089921628E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>-2.5353733473032491E-4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>1.0342678230824911E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>-1.8420718850435951E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>-8.2860705711178539E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>-6.0440872902907117E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>-4.4832543238104714E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>7.5457238643528157E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>-1.5512947552052131E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>1.101723638279228E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>1.8563809471702442E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>1.655754575765123E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>-5.630781181448441E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>5.0869551404986169E-5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>5.0422993114658246E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <v>8.0088897175656371E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <v>-1.394814421278401E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <v>2.7392314871388379E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <v>-8.8036088784742006E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <v>6.9549740226761969E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <v>8.6439218276801455E-4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A416">
+        <v>1.029597923409931E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A417">
+        <v>-3.89986854202018E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A418">
+        <v>1.3648900778721719E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A419">
+        <v>6.2510096809749172E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A420">
+        <v>1.708730117645807E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A421">
+        <v>1.8354874055628301E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A422">
+        <v>-4.704859909907988E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A423">
+        <v>2.2425906434602179E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A424">
+        <v>9.855101310722425E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A425">
+        <v>-5.7001221217971576E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A426">
+        <v>1.521429106979166E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A427">
+        <v>-1.4026858329185821E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A428">
+        <v>2.8718712584492319E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A429">
+        <v>8.7460171297140121E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <v>7.3937490249376134E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A431">
+        <v>-2.3136111857384729E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A432">
+        <v>-1.27762037494934E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A433">
+        <v>-3.1229166941493251E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A434">
+        <v>5.454207941426148E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <v>1.080806935126777E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <v>6.7331533163805801E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <v>5.9478545910769398E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <v>-6.4741937371337599E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <v>-2.973988696478358E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <v>4.0930001372174729E-4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <v>9.5148308736696663E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <v>5.647051776788814E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <v>1.5001214000465171E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <v>-3.4062426123897538E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <v>-1.1720896296754549E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <v>9.6117470835528351E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <v>-2.801492436693032E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <v>-6.2360268047108036E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <v>3.9396522992651839E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <v>-5.7996881406632284E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <v>-1.7935608032302319E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <v>-2.0484690481472612E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <v>8.1448195985611704E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <v>-2.072079035904117E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <v>2.39601619492813E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A456">
+        <v>4.7390617768705567E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A457">
+        <v>6.8177620397049674E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A458">
+        <v>-5.8273144077078953E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A459">
+        <v>-4.0634915842678856E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A460">
+        <v>-7.802630430661317E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A461">
+        <v>7.8421440820442001E-4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A462">
+        <v>5.5802910891857849E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A463">
+        <v>-7.8501655304092921E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A464">
+        <v>2.1311735855782392E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A467">
+        <v>8.0548958334167864E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A468">
+        <v>2.0379568922788138E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A469">
+        <v>-1.6718314355212979E-4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A470">
+        <v>2.37376800834177E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A471">
+        <v>5.0448887224137104E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A472">
+        <v>-4.2052806092804929E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A473">
+        <v>-8.1098889155484244E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A474">
+        <v>8.0801276308113401E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A475">
+        <v>-1.437657403739934E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A476">
+        <v>-7.5768040586625673E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A477">
+        <v>-4.2315588183887698E-3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A478">
+        <v>-3.4950624259879599E-3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A479">
+        <v>-7.5581683585017601E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A480">
+        <v>5.0717579128169987E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A481">
+        <v>3.172920549634028E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A482">
+        <v>-7.4294912330383767E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A483">
+        <v>5.5158967725992269E-3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A484">
+        <v>-6.8625485701607758E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A485">
+        <v>-6.2255273245384046E-3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A486">
+        <v>5.4278004943828506E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A487">
+        <v>-1.851445305971922E-3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A488">
+        <v>1.203174889567649E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A489">
+        <v>1.853772773841911E-3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A490">
+        <v>-2.245768711904184E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A491">
+        <v>-1.213711408309948E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A492">
+        <v>-6.837728164046375E-3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A493">
+        <v>-7.8242130141603639E-3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A495">
+        <v>4.5581364509654776E-3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A496">
+        <v>-3.3513759584140601E-3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A497">
+        <v>8.9552929663447856E-3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A498">
+        <v>-3.6232035513430461E-3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A499">
+        <v>9.845142836839571E-3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A500">
+        <v>-3.6621426713461251E-3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A502">
+        <v>-9.9606501103011169E-4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A503">
+        <v>1.806940616776664E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A504">
+        <v>1.2457466731676801E-3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A505">
+        <v>4.8393654615104253E-3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A506">
+        <v>1.358470282640045E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A507">
+        <v>8.4257157815059713E-4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A508">
+        <v>1.0419098614723231E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A510">
+        <v>3.660635071217833E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A511">
+        <v>3.4991059844813321E-4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A512">
+        <v>-1.1094598899532571E-3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A513">
+        <v>3.176769600058194E-3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A514">
+        <v>-5.0186971329733154E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A515">
+        <v>3.3663768465936879E-3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A516">
+        <v>5.9803983937696259E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A517">
+        <v>6.3022922992228558E-4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A518">
+        <v>-4.3490003016701806E-3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A519">
+        <v>7.0940436657629391E-4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A520">
+        <v>4.3400388908771959E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A521">
+        <v>7.5091579017536603E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A522">
+        <v>-5.4342549510710816E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A523">
+        <v>-1.245600899006938E-3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A524">
+        <v>-1.512080751962408E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A525">
+        <v>-5.7130237878677548E-4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A526">
+        <v>-1.5093363555394031E-3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A527">
+        <v>6.3696917897617666E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A528">
+        <v>1.9634085379946601E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A529">
+        <v>3.3439046011901397E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A530">
+        <v>-1.501255218983033E-4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A531">
+        <v>5.7553317912502067E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A532">
+        <v>-1.228127591949679E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A533">
+        <v>5.0301722506844726E-3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A534">
+        <v>-4.698097110098054E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A535">
+        <v>1.2231761091819671E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A536">
+        <v>3.1273477166253731E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A537">
+        <v>-4.7193345072944481E-3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A538">
+        <v>-2.8346415232638482E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A539">
+        <v>3.9728147688320448E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A540">
+        <v>1.1368792798478471E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A541">
+        <v>1.565301193534907E-2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A542">
+        <v>-7.2702863206419721E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A543">
+        <v>-7.5145396591853597E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A544">
+        <v>-4.8145404303054917E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A545">
+        <v>-1.8099696468176771E-4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A546">
+        <v>-2.729893460894139E-3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A547">
+        <v>2.1364124905086431E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A548">
+        <v>2.0760620378714729E-3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A549">
+        <v>5.1339601835467263E-3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A550">
+        <v>4.3416411732417606E-3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A551">
+        <v>-4.6410231655134027E-3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A552">
+        <v>-3.0684808867720288E-3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A553">
+        <v>1.5988337609958769E-2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A554">
+        <v>7.4305212714556026E-3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A555">
+        <v>4.7041938318059806E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A556">
+        <v>-7.4585612427346959E-3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A557">
+        <v>8.0111568923335597E-3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A558">
+        <v>5.9963183430191691E-3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A559">
+        <v>3.8675766787017452E-3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A560">
+        <v>-1.468068889598317E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A561">
+        <v>-8.4407326256670245E-3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A562">
+        <v>7.4557121906817514E-3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A563">
+        <v>4.1535511320560659E-3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A564">
+        <v>-1.3142008875266059E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A565">
+        <v>9.9787150552357318E-3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A566">
+        <v>1.04296222948097E-2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A567">
+        <v>1.2016244091084261E-3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A568">
+        <v>-4.2588021989073974E-3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A569">
+        <v>2.575086437111906E-3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A570">
+        <v>-4.2607870001711854E-3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A571">
+        <v>-4.843964184737537E-3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A572">
+        <v>-1.7087847709062132E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A573">
+        <v>-4.5077681830214544E-3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A574">
+        <v>7.485069962154256E-5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A575">
+        <v>-1.166168413453406E-3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A576">
+        <v>3.259716565984228E-3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A577">
+        <v>-2.7406571755426161E-3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A578">
+        <v>-8.8338752792997965E-3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A579">
+        <v>5.2806931076974104E-3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A580">
+        <v>1.1768640534794979E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A581">
+        <v>1.9972507902147999E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A582">
+        <v>-3.3292238534254892E-4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A583">
+        <v>-1.178057318086001E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A584">
+        <v>1.367816547087841E-3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A585">
+        <v>-6.3075055121846191E-3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A586">
+        <v>1.27321949800967E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A587">
+        <v>6.3185215717798116E-4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A588">
+        <v>-3.4722801831250649E-3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A589">
+        <v>6.5982407085929395E-4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A590">
+        <v>5.3410870205814476E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A591">
+        <v>7.5374178322151764E-3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A592">
+        <v>1.968112159207713E-2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A593">
+        <v>1.040452582548124E-2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A594">
+        <v>-1.0737474815138981E-3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A595">
+        <v>1.1857432209704481E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A596">
+        <v>-3.1950417118764558E-3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A597">
+        <v>-2.5763770078413022E-3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A598">
+        <v>-2.2529113784877102E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A599">
+        <v>-2.1276870065118909E-3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A600">
+        <v>1.3890598373631491E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A601">
+        <v>4.4334817201461263E-3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A602">
+        <v>2.3002187484912891E-3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A603">
+        <v>-3.4720207988172551E-3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A604">
+        <v>8.9163693475251549E-3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A605">
+        <v>1.7218644672444942E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A606">
+        <v>-1.082813127491278E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A607">
+        <v>-6.0487832633731031E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A608">
+        <v>-3.8046660333401761E-3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A609">
+        <v>6.1983820902309361E-3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A610">
+        <v>5.4969740032761996E-3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A611">
+        <v>1.708000192651937E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A612">
+        <v>8.6115514214757383E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A613">
+        <v>-8.6276727865097769E-5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A614">
+        <v>-1.4056592046040709E-2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A615">
+        <v>-2.1348228297418E-2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A616">
+        <v>-3.0588288400936752E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A617">
+        <v>1.6422320339287921E-2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A618">
+        <v>-1.016052180205396E-2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A619">
+        <v>8.4118443721958869E-4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A620">
+        <v>6.1806685495024993E-4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A621">
+        <v>1.1861789195258149E-2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A622">
+        <v>1.115772364557799E-2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A624">
+        <v>2.8074188273370382E-3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A625">
+        <v>-1.861084594532159E-3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A626">
+        <v>-2.5301350385838361E-2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A627">
+        <v>3.7694413943238909E-3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A628">
+        <v>4.1629411272907646E-3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A629">
+        <v>1.0429355081972069E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A630">
+        <v>-6.1174195479019033E-3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A631">
+        <v>3.3387545841687678E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A632">
+        <v>4.0438391687747099E-4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A633">
+        <v>1.7790842161403479E-2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A634">
+        <v>4.7690404098608141E-3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A635">
+        <v>1.350048650263957E-2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A636">
+        <v>-4.8465703832354379E-3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A637">
+        <v>4.4189076475245059E-3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A638">
+        <v>1.7963188035594161E-2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A639">
+        <v>2.9082314695649808E-4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A640">
+        <v>-4.9860576091642628E-4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A641">
+        <v>-7.7148199967691511E-4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A642">
+        <v>-1.6664333997646889E-2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A643">
+        <v>6.8113653783452577E-4</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A644">
+        <v>6.7906334349192576E-3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A645">
+        <v>4.9921127962466727E-3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A646">
+        <v>1.5390799642197811E-2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A647">
+        <v>-2.0128278783619891E-3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A648">
+        <v>1.1559559168317969E-2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A649">
+        <v>8.321360675187961E-3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A651">
+        <v>1.73867892366113E-2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A652">
+        <v>-1.322958004370811E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A653">
+        <v>-3.2642818802237632E-3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A654">
+        <v>1.1447400425941719E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A656">
+        <v>8.5344376941369759E-3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A657">
+        <v>-1.0949458156980009E-2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A658">
+        <v>-7.2444366740826993E-3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A659">
+        <v>-5.8281712442882494E-3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A660">
+        <v>1.9435040466238009E-3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A661">
+        <v>2.247216260986562E-5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A662">
+        <v>1.3922887430197759E-3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A663">
+        <v>-2.0879819619874951E-2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A664">
+        <v>-1.835669187192401E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A665">
+        <v>4.0434021483326532E-3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A666">
+        <v>-1.6636542152627779E-2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A667">
+        <v>6.9667326061013668E-3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A668">
+        <v>1.0180935320276421E-3</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A669">
+        <v>-1.6148291757001051E-2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A670">
+        <v>-1.1705907462019381E-2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A671">
+        <v>1.5952582016716121E-2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A672">
+        <v>-7.8655597065484528E-3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A673">
+        <v>1.795547167424694E-2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A674">
+        <v>-2.5164819240588439E-3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A675">
+        <v>1.556135253898905E-2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A676">
+        <v>1.655050987471984E-2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A677">
+        <v>-4.901163776775519E-3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A678">
+        <v>9.9406091196740931E-4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A679">
+        <v>-2.1740540099717261E-2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A680">
+        <v>3.1861890359712319E-3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A681">
+        <v>-2.3020542367450329E-2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A682">
+        <v>2.1265038957363198E-3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A683">
+        <v>7.998145103515597E-3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A684">
+        <v>1.5391446151520329E-3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A685">
+        <v>-5.1650124519948548E-3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A686">
+        <v>-3.2488688419665119E-3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A687">
+        <v>1.3599287228713839E-2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A688">
+        <v>2.1284783326649399E-3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A689">
+        <v>1.2584109437724139E-2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A690">
+        <v>-1.323998540698579E-2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A691">
+        <v>-1.215976660270268E-2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A692">
+        <v>2.6434863914674982E-3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A693">
+        <v>1.251106497683541E-2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A694">
+        <v>-2.7161491195257351E-2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A695">
+        <v>-3.640976262867746E-3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A696">
+        <v>1.335883570861451E-2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A697">
+        <v>-2.2133177972323281E-2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A698">
+        <v>-1.8897048733712118E-2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A699">
+        <v>1.268001848142042E-2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A700">
+        <v>1.5680182275200849E-2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A701">
+        <v>2.6307802956350379E-2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A702">
+        <v>-3.1238355068250461E-3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A703">
+        <v>-3.5159857876729821E-3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A704">
+        <v>3.064218948146014E-3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A705">
+        <v>-1.070424757931843E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A706">
+        <v>3.1613691651767077E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A707">
+        <v>4.3741201353348913E-3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A708">
+        <v>-4.9689314616641056E-3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A709">
+        <v>-3.539286966619315E-3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A710">
+        <v>-9.328477910854005E-3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A711">
+        <v>-4.6078930684068098E-3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A712">
+        <v>5.2197438426162526E-3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A713">
+        <v>9.877747771513512E-3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A714">
+        <v>-8.6365144049649345E-3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A715">
+        <v>-1.6789635238012579E-4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A716">
+        <v>1.1002680736584841E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A717">
+        <v>-2.2629981901287621E-3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A718">
+        <v>-5.089635661909675E-3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A719">
+        <v>-4.1725714364266864E-3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A722">
+        <v>1.5838404036568221E-2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A723">
+        <v>3.576361337618295E-3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A724">
+        <v>8.0593763581306987E-3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A725">
+        <v>2.7691085690229039E-4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A726">
+        <v>9.7877263694288175E-3</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A727">
+        <v>-6.1586654655956252E-3</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A728">
+        <v>1.807346449620439E-3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A729">
+        <v>-7.6811384058474994E-3</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A730">
+        <v>6.203876447288259E-3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A731">
+        <v>2.911775327194555E-3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A732">
+        <v>-1.109646810838782E-2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A733">
+        <v>9.1158118377343555E-5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A734">
+        <v>1.4583570721971029E-4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A735">
+        <v>1.075128088699095E-2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A736">
+        <v>-4.2694465561812223E-3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A737">
+        <v>1.468777247143205E-2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A738">
+        <v>6.9448119883652737E-3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A739">
+        <v>-8.5254587750718258E-3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A740">
+        <v>6.5429723014265306E-3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A741">
+        <v>6.2887026467493001E-3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A742">
+        <v>-2.212688302160259E-3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A743">
+        <v>-8.8197464844945728E-3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A744">
+        <v>3.5310157957431092E-3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A745">
+        <v>-7.2401857094517297E-3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A746">
+        <v>-6.6392596630713294E-3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A747">
+        <v>1.0120913008354829E-2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A748">
+        <v>2.975927495197261E-3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A750">
+        <v>4.1328701440317417E-3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A751">
+        <v>6.9002478942552514E-3</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A752">
+        <v>-2.13606125609811E-3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A753">
+        <v>-6.1473065916031189E-3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A754">
+        <v>-3.7422265894759832E-3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A755">
+        <v>-3.0414137020464689E-3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A757">
+        <v>-2.302348375488172E-2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A758">
+        <v>-2.3327463322946329E-2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A759">
+        <v>3.9406525982501614E-3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A760">
+        <v>-1.559156220772095E-2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A761">
+        <v>7.9952153157858419E-3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A762">
+        <v>3.5527679093512181E-3</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A763">
+        <v>-1.1159947956381091E-2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A764">
+        <v>3.1224560957410219E-3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A765">
+        <v>1.8064995335056899E-2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A766">
+        <v>2.1793103776950322E-3</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A767">
+        <v>-1.4802185805135259E-2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A768">
+        <v>5.6739001489258811E-3</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A769">
+        <v>-5.9835456073527027E-3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A770">
+        <v>5.8202806816609609E-3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A771">
+        <v>-2.7986689401928722E-2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A772">
+        <v>1.9267366955162399E-3</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A773">
+        <v>-7.3192450066237313E-3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A774">
+        <v>-1.258116340063165E-2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A775">
+        <v>-7.5948677071586701E-3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A776">
+        <v>-2.258807604860813E-2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A777">
+        <v>-1.488045715200936E-2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A778">
+        <v>2.415558095617509E-2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A779">
+        <v>1.3667255058951611E-2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A780">
+        <v>-1.359742962251431E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A781">
+        <v>-2.2918211027498359E-3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A782">
+        <v>1.082360115137249E-2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A783">
+        <v>9.9393147322990316E-3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A784">
+        <v>-1.063185266406119E-2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A785">
+        <v>9.7697709774182684E-3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A786">
+        <v>1.0242899232804531E-2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A787">
+        <v>-1.3211986126120401E-2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A788">
+        <v>-1.628148132523322E-3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A789">
+        <v>8.7099214249084511E-3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A790">
+        <v>-6.199764412277986E-4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A791">
+        <v>1.0507007760254259E-2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A792">
+        <v>-1.0145714913828209E-2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A793">
+        <v>1.307374656315474E-3</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A794">
+        <v>9.4421802148003664E-3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A795">
+        <v>1.573009615651166E-2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A796">
+        <v>6.3594575184877664E-3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A797">
+        <v>6.0751525496796077E-3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A798">
+        <v>-4.1827186506990799E-3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A799">
+        <v>2.7214616629125392E-3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A800">
+        <v>1.0049254390591679E-2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A801">
+        <v>-1.873061091267836E-3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A802">
+        <v>8.8728925275178838E-3</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A803">
+        <v>-1.274192967532883E-2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A804">
+        <v>-8.4776529942498513E-4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A805">
+        <v>8.431544639089239E-3</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A806">
+        <v>4.3164967605155979E-3</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A807">
+        <v>1.475528075564281E-2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A808">
+        <v>-1.2772384196217961E-3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A809">
+        <v>-6.4888756331669128E-3</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A810">
+        <v>5.5664253207048384E-3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A811">
+        <v>-2.9694860454778649E-3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A812">
+        <v>-1.002108375017219E-2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A813">
+        <v>2.7501305733883541E-3</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A814">
+        <v>-4.7191504294961106E-3</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A815">
+        <v>-1.0522118966471259E-2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A816">
+        <v>2.8115686864094158E-4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A817">
+        <v>8.5421759033934563E-3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A818">
+        <v>6.441014949463586E-3</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A819">
+        <v>-7.0032708650584752E-3</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A820">
+        <v>-3.538771829157739E-3</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A821">
+        <v>-1.431478376991979E-2</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A822">
+        <v>3.721707778058025E-3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A823">
+        <v>5.5145254138819766E-3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A824">
+        <v>9.5650752818476903E-3</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A825">
+        <v>1.708121068505886E-2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A826">
+        <v>1.1411058164022769E-2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A827">
+        <v>-4.4780852571379981E-3</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A828">
+        <v>5.7558392764089916E-4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A829">
+        <v>-9.7021615310133313E-3</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A830">
+        <v>5.2929973270181563E-3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A831">
+        <v>-1.0880962447617829E-2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A832">
+        <v>-7.1704753780643671E-3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A833">
+        <v>4.4431674552791733E-3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A834">
+        <v>4.7954659318296677E-3</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A835">
+        <v>-1.0393108264096011E-2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A836">
+        <v>1.0669412890873529E-4</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A837">
+        <v>6.2138301450342937E-4</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A838">
+        <v>-1.82353976597831E-2</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A839">
+        <v>5.2689567291883677E-3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A840">
+        <v>-1.5099143914934389E-2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A841">
+        <v>1.476894027384823E-3</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A842">
+        <v>-1.9905938909567489E-2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A843">
+        <v>3.887245826289742E-3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A844">
+        <v>2.724652529312976E-3</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A845">
+        <v>1.1759932560635461E-2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A846">
+        <v>-1.901307767732607E-2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A847">
+        <v>-4.5689622445888029E-4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A848">
+        <v>6.5273718945331183E-3</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A849">
+        <v>-2.6567473238162439E-2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A850">
+        <v>-6.8585121450066566E-3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A852">
+        <v>-6.8304462284896061E-3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A853">
+        <v>-2.1438322958950099E-2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A854">
+        <v>9.6731243270129497E-3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A855">
+        <v>6.2185091388853309E-3</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A856">
+        <v>3.5217723205116513E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A857">
+        <v>1.8930664185506711E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A858">
+        <v>-7.2253156011514719E-3</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A859">
+        <v>1.6935124738747479E-2</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A860">
+        <v>4.9401510587339104E-3</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A861">
+        <v>-1.088736698156278E-2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A862">
+        <v>-1.2484676560458039E-2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A863">
+        <v>-6.6125238521443919E-3</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A864">
+        <v>-3.796217605029462E-3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A865">
+        <v>-1.5524021705705771E-2</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A866">
+        <v>2.9906638386671962E-3</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A867">
+        <v>-1.3333564050899581E-2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A868">
+        <v>6.7910280214205088E-3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A869">
+        <v>8.3849622300240512E-3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A870">
+        <v>1.8816412488342319E-2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A871">
+        <v>-1.589748398520108E-3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A872">
+        <v>2.2288126752760822E-3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A873">
+        <v>-1.2795802545434221E-2</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A874">
+        <v>1.046512106254127E-2</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A875">
+        <v>3.8830675600953768E-3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A876">
+        <v>-1.268772992524525E-2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A877">
+        <v>6.3712816081986654E-3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A878">
+        <v>1.6599772552961412E-2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A879">
+        <v>3.466373474880768E-3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A880">
+        <v>-1.168359124719753E-2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A881">
+        <v>8.3415655444998293E-3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A882">
+        <v>1.0073242852592481E-2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A884">
+        <v>-9.6429276161398292E-3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A885">
+        <v>-1.1766339108802979E-3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A886">
+        <v>3.6878905240795849E-3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A887">
+        <v>-1.1466404173220651E-2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A888">
+        <v>-1.6162400183334039E-2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A889">
+        <v>9.14411422661221E-3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A890">
+        <v>-1.224769658285219E-3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A891">
+        <v>-2.65394875636904E-3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A892">
+        <v>-7.1347432379216258E-3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A893">
+        <v>1.018253157053373E-2</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A894">
+        <v>-5.6256881871412654E-3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A895">
+        <v>-1.546018821020567E-3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A896">
+        <v>1.2108264456642809E-2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A897">
+        <v>-9.8536374833670948E-3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A898">
+        <v>-1.442179847766845E-3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A899">
+        <v>-1.071981971966451E-3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A900">
+        <v>-8.6866391124740261E-3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A901">
+        <v>-1.0204094170433111E-2</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A902">
+        <v>7.701199202178266E-3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A903">
+        <v>1.074376047245096E-2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A904">
+        <v>6.4905958270573549E-3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A905">
+        <v>7.5992150631920552E-3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A906">
+        <v>-1.600391010967428E-3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A907">
+        <v>6.5449079110813102E-3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A908">
+        <v>7.3473745512675492E-3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A909">
+        <v>3.2160113478809649E-3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A910">
+        <v>-6.0429718985055558E-4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A912">
+        <v>4.6489072865485426E-3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A913">
+        <v>-6.3829346651562702E-3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A914">
+        <v>-1.0862950239864061E-2</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A915">
+        <v>1.094400200576473E-2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A916">
+        <v>-8.7725321368665732E-3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A917">
+        <v>-4.9516627978229977E-3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A918">
+        <v>1.921861029705596E-3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A919">
+        <v>-1.039685824165737E-2</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A920">
+        <v>3.2800796381824431E-3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A921">
+        <v>-2.3299885772303242E-3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A922">
+        <v>4.2133562837394223E-3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A923">
+        <v>-1.5519515822237651E-4</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A924">
+        <v>-1.00935603895369E-3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A925">
+        <v>2.163043847180468E-3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A926">
+        <v>1.1612719877510891E-2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A927">
+        <v>-3.2904549023351488E-3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A928">
+        <v>2.0302334061836902E-3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A929">
+        <v>-2.890605630303078E-3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A930">
+        <v>-1.391635015262338E-2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A931">
+        <v>-1.8618167698539519E-2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A932">
+        <v>7.2463009185410598E-3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A933">
+        <v>-3.4528343179918147E-4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A934">
+        <v>6.7949206312567512E-3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A935">
+        <v>-5.0253707145424542E-3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A936">
+        <v>-1.912630844024044E-3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A937">
+        <v>-9.1817851693054564E-4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A938">
+        <v>1.1109424567649739E-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A939">
+        <v>-4.3956114730381302E-3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A940">
+        <v>1.9182397529574399E-2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A941">
+        <v>3.4302054762900269E-3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A942">
+        <v>3.7959974640751071E-3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A943">
+        <v>-2.501920798770207E-3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A944">
+        <v>1.4276513529673631E-2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A945">
+        <v>4.5979691686612867E-3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A946">
+        <v>-4.0503809035783434E-3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A947">
+        <v>4.4122323651540904E-3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A948">
+        <v>3.3584938998778568E-3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A949">
+        <v>-1.103235401293823E-2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A950">
+        <v>3.4173523987250931E-3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A951">
+        <v>-8.2013692684839157E-3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A952">
+        <v>-7.6121604299927981E-5</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A953">
+        <v>-2.6488314900570131E-3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A954">
+        <v>1.4294415368831361E-2</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A955">
+        <v>-4.1705703436676336E-3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A956">
+        <v>-5.4644944720791946E-3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A957">
+        <v>-3.9011443657539502E-3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A958">
+        <v>1.389825119643451E-2</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A959">
+        <v>-4.9813362191102328E-3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A960">
+        <v>-1.067740741557976E-2</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A961">
+        <v>-1.162806592017418E-2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A962">
+        <v>-1.3957188146669351E-2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A963">
+        <v>-5.8369365648207614E-3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A964">
+        <v>-1.9997779826241849E-2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A965">
+        <v>9.829871174908078E-3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A966">
+        <v>-1.7429558551094178E-2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A967">
+        <v>2.420150946824862E-2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A968">
+        <v>-1.3580049999376341E-2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A969">
+        <v>1.043543225199706E-2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A970">
+        <v>-1.8335361128617219E-2</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A971">
+        <v>2.7594852685757232E-3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A972">
+        <v>-4.2326549959970089E-4</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A973">
+        <v>-3.0689889870512128E-3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A974">
+        <v>-2.1972952560068041E-2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A975">
+        <v>4.0816854310588008E-4</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A976">
+        <v>-3.6484208669751439E-3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A977">
+        <v>-8.9155184196645365E-3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A978">
+        <v>3.7331497063206598E-3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A979">
+        <v>1.5980239818835781E-2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A980">
+        <v>-1.815055844490843E-2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A981">
+        <v>1.0530924800370659E-2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A982">
+        <v>1.575158700385337E-2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A983">
+        <v>3.5091586361133409E-3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A984">
+        <v>1.9903225270265779E-3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A985">
+        <v>1.1073946262563079E-3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A986">
+        <v>1.060734733958846E-3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A987">
+        <v>-7.8281448517447672E-4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A988">
+        <v>5.9541676130052679E-3</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A989">
+        <v>-4.0713984278966109E-3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A992">
+        <v>-1.4410005517760281E-2</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A993">
+        <v>-5.509825404926616E-3</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A994">
+        <v>5.8730014086112448E-3</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A995">
+        <v>1.641921426789494E-2</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A996">
+        <v>-4.4016840801877066E-3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A997">
+        <v>1.434852813698217E-2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A998">
+        <v>1.038142764664496E-2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A999">
+        <v>-2.107201533768865E-3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1000">
+        <v>-3.11711696656225E-3</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1002">
+        <v>9.1357722239049366E-3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1003">
+        <v>7.4611117572054297E-4</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1004">
+        <v>-1.885986797223183E-3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1005">
+        <v>-6.37675172145169E-3</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1006">
+        <v>4.6546493474224349E-3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1007">
+        <v>9.80575370875858E-3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1008">
+        <v>6.6827787485230772E-3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1009">
+        <v>1.0600414380316E-2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1010">
+        <v>7.6346636246586996E-3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1011">
+        <v>-4.9590031054780326E-3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1012">
+        <v>8.2640377396865361E-3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1013">
+        <v>-9.7038883588078662E-3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1014">
+        <v>-2.4875455876083312E-3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1015">
+        <v>-9.343834705487275E-3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1016">
+        <v>1.559644138386229E-2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1017">
+        <v>-6.3725870017456998E-3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1018">
+        <v>1.06602623588028E-2</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1020">
+        <v>-1.9259439047021761E-2</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1021">
+        <v>1.717062456175533E-3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1022">
+        <v>5.8785151168319061E-3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1023">
+        <v>8.8439643647522104E-3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1024">
+        <v>9.1439989226627105E-3</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1025">
+        <v>6.3406265166889852E-3</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1027">
+        <v>1.000733819255384E-2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1028">
+        <v>-8.1335556026340683E-3</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1029">
+        <v>2.2929715842234799E-4</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1030">
+        <v>-1.4160170819168091E-2</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1031">
+        <v>9.7428131086223502E-3</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1032">
+        <v>-1.665083497750963E-3</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1033">
+        <v>2.7770652247571798E-4</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1034">
+        <v>2.7916044466191892E-3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1035">
+        <v>-2.6880725987190601E-3</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1036">
+        <v>1.3586892473089311E-2</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1037">
+        <v>-6.4128905602736097E-3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1038">
+        <v>2.1095675744042812E-3</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1041">
+        <v>-3.5121841513818812E-3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1042">
+        <v>-3.9237337482802559E-3</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1043">
+        <v>-1.7861806681121809E-2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1044">
+        <v>1.614914899055186E-3</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1045">
+        <v>-2.6961667686071782E-3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1046">
+        <v>5.0803218570658606E-3</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1047">
+        <v>4.9646047986406927E-3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1048">
+        <v>3.5479818474124509E-3</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1049">
+        <v>-2.9699854888063371E-3</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1050">
+        <v>2.4339637733709729E-2</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1051">
+        <v>9.6694223124540457E-3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1052">
+        <v>4.4581144239037576E-3</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1053">
+        <v>2.808076539084325E-3</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1054">
+        <v>-3.0040714073811259E-3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1055">
+        <v>-1.1265756715497231E-3</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1056">
+        <v>4.6031939334740812E-3</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1057">
+        <v>-8.0500860034664612E-3</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1058">
+        <v>5.2980014401295961E-3</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1059">
+        <v>-5.3850131157773262E-3</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1060">
+        <v>5.9451415501090574E-3</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1061">
+        <v>1.6023609994619829E-2</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1062">
+        <v>9.4080752715441918E-5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1063">
+        <v>2.460873374982242E-3</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1064">
+        <v>7.281515770376501E-4</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1065">
+        <v>-9.6247997487122205E-3</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1066">
+        <v>2.071876824951246E-3</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1067">
+        <v>-5.0746990227388267E-3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1068">
+        <v>1.71899338235777E-2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1069">
+        <v>-6.5738363516611997E-3</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1070">
+        <v>8.1403726702777846E-4</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1071">
+        <v>3.516887344564346E-3</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1072">
+        <v>-3.4230025947321612E-3</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1073">
+        <v>-6.5528124196303486E-3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1074">
+        <v>6.4768111588673349E-3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1075">
+        <v>-3.7087179364974081E-3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1076">
+        <v>-9.0289895194599623E-3</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1077">
+        <v>1.274217827825286E-2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1078">
+        <v>6.6438617337816197E-3</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1079">
+        <v>1.016519639996716E-3</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1080">
+        <v>5.2790185851385729E-3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1081">
+        <v>1.649226692647332E-3</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1082">
+        <v>-4.694647327304402E-3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1083">
+        <v>1.632155138372227E-3</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1084">
+        <v>-3.8746265182565409E-3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1085">
+        <v>1.5206431303731449E-3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1086">
+        <v>-7.5728797870056042E-3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1087">
+        <v>-4.4915947726078542E-3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1088">
+        <v>9.3851727687157549E-3</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1089">
+        <v>-7.6111774552289901E-3</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1090">
+        <v>3.810600569480016E-3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1091">
+        <v>9.019467071095022E-3</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1092">
+        <v>1.5409582155792021E-3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1093">
+        <v>-8.8242950549322074E-5</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1094">
+        <v>-1.3687624111362599E-3</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1095">
+        <v>1.5452405261022759E-3</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1096">
+        <v>6.57107032859372E-4</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1097">
+        <v>-9.6596417565031345E-4</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1098">
+        <v>1.5175063858135831E-2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1099">
+        <v>-1.8691548214455619E-4</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1100">
+        <v>2.297069750587966E-3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1101">
+        <v>-7.0031863543347228E-3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1102">
+        <v>7.4715054442950901E-3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1103">
+        <v>-5.4381862457892893E-3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1104">
+        <v>-8.0659186890397194E-3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1105">
+        <v>-3.1822977459610158E-2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1106">
+        <v>3.8619963291104402E-3</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1107">
+        <v>8.5715003338426854E-3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1108">
+        <v>-1.8594586740358739E-2</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1109">
+        <v>-3.0444763569645872E-3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1110">
+        <v>7.7665245786660009E-3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1111">
+        <v>-1.937121480267479E-3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1113">
+        <v>6.6188904281698768E-3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1114">
+        <v>-9.1117424329052454E-3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1115">
+        <v>-6.9553314010688538E-3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1116">
+        <v>-8.7407334901694611E-3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1117">
+        <v>-9.5007723742526196E-3</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1118">
+        <v>7.7146309612734498E-3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1119">
+        <v>2.8609271384043571E-3</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1120">
+        <v>2.1247569712472551E-2</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1121">
+        <v>-5.5727923566930571E-3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1122">
+        <v>-3.804204735366135E-3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1123">
+        <v>5.4984179464963026E-3</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1124">
+        <v>-9.8225160173317505E-3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1125">
+        <v>-1.2936647424536931E-2</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1126">
+        <v>-1.4659182359910259E-2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1127">
+        <v>-9.3578534810223601E-4</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1128">
+        <v>1.215349035323054E-2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1129">
+        <v>9.3382023277133186E-4</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1130">
+        <v>-1.4445283204662649E-2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1131">
+        <v>1.769284863972409E-2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1132">
+        <v>7.4383897945429212E-3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1133">
+        <v>7.5209594902840848E-3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1134">
+        <v>-7.4267641977776577E-4</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1135">
+        <v>-4.9653219816061522E-3</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1136">
+        <v>-5.163360540318962E-4</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1137">
+        <v>2.62501186922659E-3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1138">
+        <v>4.4879753738422679E-3</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1139">
+        <v>-7.2368846081438676E-4</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1140">
+        <v>-3.529752933268071E-3</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1141">
+        <v>9.3228713226878313E-3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1142">
+        <v>9.9715659294119519E-4</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1143">
+        <v>-3.1861774788310981E-4</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1144">
+        <v>1.205660836731681E-3</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1145">
+        <v>-1.2284231323560491E-3</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1146">
+        <v>3.372270613922979E-3</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1147">
+        <v>-9.578044768536742E-4</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1148">
+        <v>-3.3527234159054231E-3</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1149">
+        <v>1.243229003038415E-3</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1150">
+        <v>6.1975889022134467E-3</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1151">
+        <v>1.6618868248717611E-2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1152">
+        <v>-2.253456846431412E-3</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1153">
+        <v>3.044969031685163E-3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1154">
+        <v>2.3087008278954708E-3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1155">
+        <v>5.1354638233043204E-3</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1156">
+        <v>-2.4206883391535432E-3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1157">
+        <v>3.6464650750103189E-3</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1158">
+        <v>2.4646381097728209E-3</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1159">
+        <v>-6.3145664846873117E-3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1160">
+        <v>7.5270499396173918E-3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1162">
+        <v>4.1261188293084672E-4</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1163">
+        <v>2.025472535336803E-3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1164">
+        <v>1.2911783685369831E-3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1165">
+        <v>-1.0371878699189101E-3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1166">
+        <v>-1.9275233815860379E-2</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1167">
+        <v>5.3105205334880168E-4</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1168">
+        <v>1.1815194548693061E-2</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1169">
+        <v>1.234453601535179E-4</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1170">
+        <v>5.4779480863293983E-3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1173">
+        <v>-1.6223622945954469E-4</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1174">
+        <v>-2.8719878161620471E-3</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1175">
+        <v>-5.8263425664337731E-3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1177">
+        <v>2.0581281107221901E-2</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1178">
+        <v>7.9760796444361404E-3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1179">
+        <v>2.8461123442831142E-3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1180">
+        <v>-7.3788054191759036E-3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1181">
+        <v>9.0706104214097749E-3</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1182">
+        <v>6.275309988073019E-3</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1183">
+        <v>-4.7572652798528736E-3</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1184">
+        <v>-3.9946192193385244E-3</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1185">
+        <v>9.7804987660587983E-3</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1186">
+        <v>3.1769151287548421E-3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1187">
+        <v>7.6147692983203896E-3</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1188">
+        <v>-1.5982977329169761E-3</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1189">
+        <v>5.8716920178962786E-3</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1190">
+        <v>4.5760173375368751E-3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1191">
+        <v>-3.6892402954711301E-3</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1192">
+        <v>5.7681940046894198E-4</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1193">
+        <v>1.8038503105951339E-2</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1194">
+        <v>1.395243862161166E-4</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1195">
+        <v>5.1936687826827921E-3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1196">
+        <v>-4.914678397835992E-3</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1197">
+        <v>7.5156827587328223E-3</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1198">
+        <v>2.809464573774179E-3</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1199">
+        <v>3.8617987708695618E-3</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1200">
+        <v>-5.1578067201925037E-3</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1201">
+        <v>-1.762320942472595E-2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1202">
+        <v>8.70892581563254E-3</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1203">
+        <v>1.8236177834385361E-3</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1204">
+        <v>-1.2748631641731119E-2</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1205">
+        <v>9.7306898329270197E-3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1206">
+        <v>-2.6646615241308069E-3</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1207">
+        <v>3.08345294749035E-3</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1208">
+        <v>-3.4211544390574389E-3</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1209">
+        <v>-5.1912952211097263E-4</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1210">
+        <v>-1.199972928112913E-3</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1211">
+        <v>-1.496536077633959E-2</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1212">
+        <v>-6.1294857925995316E-3</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1213">
+        <v>1.197182647789408E-2</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1214">
+        <v>8.4337249814812054E-3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1215">
+        <v>1.132734401564495E-2</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1216">
+        <v>-4.4146749958260401E-3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1217">
+        <v>4.2391149895779634E-3</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1218">
+        <v>1.534053308701111E-2</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1219">
+        <v>-7.1196854256250219E-4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1220">
+        <v>1.4756648697247239E-3</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1221">
+        <v>-8.1194936610717861E-4</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1222">
+        <v>-5.7709335758149294E-3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1223">
+        <v>-4.6117438467874189E-4</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1224">
+        <v>3.2318298455793482E-3</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1225">
+        <v>-1.241042027261585E-2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1226">
+        <v>-1.1946277653858139E-2</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1227">
+        <v>-1.832468284301392E-3</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1228">
+        <v>7.0773901043974519E-4</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1229">
+        <v>6.375989233806223E-3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1230">
+        <v>1.0444920188690251E-2</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1231">
+        <v>5.9019956133328222E-3</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1232">
+        <v>4.9180195509501701E-3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1233">
+        <v>2.8092220376816361E-3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1234">
+        <v>5.4392225433632646E-3</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1235">
+        <v>-1.022242892256742E-2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1236">
+        <v>1.3999235560166129E-2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1237">
+        <v>-3.5932142122661048E-3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1238">
+        <v>7.1696011934232473E-3</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1239">
+        <v>-8.3036235801223768E-3</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1240">
+        <v>-5.4444087058564961E-3</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1241">
+        <v>4.5690546612053851E-3</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1242">
+        <v>2.9387945748373672E-3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1243">
+        <v>-7.4395606484447541E-3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1244">
+        <v>3.7006860229267251E-3</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1247">
+        <v>4.8148034151642696E-3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1248">
+        <v>5.8692885509907811E-3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1249">
+        <v>-6.9412302826270533E-3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1250">
+        <v>7.3964657956908653E-3</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1251">
+        <v>5.5451219829807394E-3</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1252">
+        <v>2.5667698163518442E-3</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1253">
+        <v>-1.0854355710262281E-2</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1254">
+        <v>1.728787107809993E-3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1255">
+        <v>4.6165724952347276E-3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1256">
+        <v>5.2742136723553656E-3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1257">
+        <v>-5.8842105073786399E-5</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1258">
+        <v>-9.5705071881297954E-3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1259">
+        <v>5.466566525044847E-3</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1260">
+        <v>4.7257491191654571E-4</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1261">
+        <v>-1.344095068665396E-2</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1262">
+        <v>-5.3375071701022847E-3</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1264">
+        <v>-1.094780726176481E-2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1265">
+        <v>2.810901986872949E-3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1266">
+        <v>4.4076467317566431E-4</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1267">
+        <v>1.321129575972968E-3</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1268">
+        <v>-4.2808076701650322E-3</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1269">
+        <v>1.7663339802771461E-3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1270">
+        <v>1.1449761774538381E-2</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1271">
+        <v>-1.0770017156032099E-3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1272">
+        <v>1.2685933772853099E-2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1273">
+        <v>2.449335558649679E-3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1275">
+        <v>7.0340727520870061E-3</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1276">
+        <v>-4.047690474360266E-3</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1277">
+        <v>8.672034919627869E-3</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1278">
+        <v>-5.9966030843146001E-3</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1279">
+        <v>-8.7923480839435797E-4</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1280">
+        <v>1.169526514367192E-3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1282">
+        <v>3.766143649908571E-3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1283">
+        <v>-4.1584497478464044E-3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1284">
+        <v>-5.0154403357760557E-3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1285">
+        <v>-4.7316175153424567E-3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1286">
+        <v>7.9640501446132106E-3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1287">
+        <v>2.524336837623764E-3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1288">
+        <v>2.3914769444211001E-4</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1289">
+        <v>3.1271735154554392E-3</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1290">
+        <v>-9.0245065420546666E-3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1291">
+        <v>6.6536041368436827E-3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1292">
+        <v>7.0803526039480147E-3</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1293">
+        <v>-4.6683525453961039E-4</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1294">
+        <v>-1.468060224372181E-3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1295">
+        <v>-8.307570920224272E-3</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1296">
+        <v>1.888270713243045E-3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1297">
+        <v>1.728114415054272E-3</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1298">
+        <v>-3.1685306970707931E-3</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1299">
+        <v>-5.4428225877849457E-3</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1300">
+        <v>6.1260034099088756E-3</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1301">
+        <v>5.6399697836191356E-3</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1302">
+        <v>6.2911763653819008E-3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1303">
+        <v>-2.4464036494373791E-3</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1304">
+        <v>-7.9081417470705517E-3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1305">
+        <v>7.2780979731907891E-3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1306">
+        <v>1.166434808021144E-3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1307">
+        <v>-3.1602981101261922E-3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1308">
+        <v>3.8973895778227069E-4</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1309">
+        <v>4.8279414136374044E-3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1310">
+        <v>-3.8659366306861291E-3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1311">
+        <v>-2.8380425653029562E-3</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1312">
+        <v>2.8494755011010398E-4</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1313">
+        <v>4.1906573974754826E-3</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1314">
+        <v>-4.3038460186268779E-3</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1315">
+        <v>-5.079331277563881E-3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1316">
+        <v>-7.6677012535633082E-3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1317">
+        <v>-2.1385377504553379E-2</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1318">
+        <v>8.7300274777097897E-3</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1319">
+        <v>3.145957723805104E-3</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1320">
+        <v>-2.8817484685390582E-3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1321">
+        <v>-1.209275669678345E-2</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1322">
+        <v>8.2709452887952395E-3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1323">
+        <v>-1.2001073714530189E-2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1324">
+        <v>2.18537591748369E-3</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1325">
+        <v>2.0267456198155291E-3</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1326">
+        <v>1.1089167749060991E-3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1327">
+        <v>-2.1906878245179229E-3</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1328">
+        <v>9.9469593958776414E-3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1329">
+        <v>5.0684102207325674E-3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1330">
+        <v>6.408721844318066E-3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1331">
+        <v>1.031586382387317E-4</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1332">
+        <v>2.8564373405988159E-3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1333">
+        <v>5.3973783364096306E-3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1334">
+        <v>-2.6713753366713888E-3</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1335">
+        <v>-6.5909043961820402E-4</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1336">
+        <v>-1.5092553387399119E-3</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1337">
+        <v>6.5066961386559541E-3</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1338">
+        <v>-4.0862353375636928E-4</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1339">
+        <v>-7.3122408592229959E-4</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1340">
+        <v>9.8656368588470045E-3</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1341">
+        <v>-4.570468573440678E-3</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1342">
+        <v>2.2936999761782322E-3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1343">
+        <v>-1.0862335443447609E-2</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1344">
+        <v>9.8079649806059876E-3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1345">
+        <v>1.0543704628416251E-3</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1346">
+        <v>-3.0098487700591652E-3</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1347">
+        <v>3.5834278606836629E-3</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1348">
+        <v>-2.7147234668358782E-3</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1349">
+        <v>-3.0555426986769159E-3</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1350">
+        <v>-5.6459203391723278E-3</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1351">
+        <v>1.5178906997466159E-3</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1352">
+        <v>-3.7931236482684478E-3</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1353">
+        <v>-1.008920125702417E-3</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1354">
+        <v>2.51841998556035E-3</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1355">
+        <v>4.015539483432029E-3</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1356">
+        <v>2.7373874470448811E-3</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1357">
+        <v>7.4475579072705864E-3</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1358">
+        <v>-2.725076740262011E-5</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1359">
+        <v>7.5008981169801814E-3</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1360">
+        <v>1.0172042176295189E-2</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1361">
+        <v>6.0022221330147119E-3</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1362">
+        <v>-1.449587159613408E-3</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1363">
+        <v>-1.9932814362446649E-3</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1364">
+        <v>1.6238906032191029E-3</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1365">
+        <v>6.0908188358093076E-3</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1366">
+        <v>-6.5784713321201949E-3</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1367">
+        <v>7.3050670363015158E-3</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1368">
+        <v>7.4173244338311406E-3</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1369">
+        <v>6.9819036405682766E-4</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1370">
+        <v>-1.915558294732556E-3</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1371">
+        <v>-1.6442947255024269E-3</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1372">
+        <v>-4.3315888379868989E-4</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1373">
+        <v>1.159269335696411E-2</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1375">
+        <v>7.0358799510286119E-3</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1376">
+        <v>3.5493376790984849E-4</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1377">
+        <v>-9.6527067432283786E-4</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1378">
+        <v>-6.4478872496467332E-3</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1379">
+        <v>-6.3701981199582036E-4</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1380">
+        <v>3.411328386625279E-3</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1381">
+        <v>3.018439230883629E-3</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1382">
+        <v>6.6057263282450762E-3</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1383">
+        <v>-5.0407663074878428E-3</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1384">
+        <v>4.5882468147553368E-3</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1385">
+        <v>3.6950966367248479E-3</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1386">
+        <v>2.237592098961017E-3</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1387">
+        <v>-4.3736470832440588E-3</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1388">
+        <v>-1.5868852043237961E-2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1389">
+        <v>1.137883622159386E-3</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1390">
+        <v>3.2944175509372902E-3</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1391">
+        <v>4.649515617300537E-3</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1392">
+        <v>-1.034806764360674E-2</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1393">
+        <v>-4.0372923372391512E-3</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1394">
+        <v>2.5036931288848758E-3</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1395">
+        <v>-4.5304863184814081E-4</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1396">
+        <v>3.1931706798360442E-3</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1397">
+        <v>1.387631651446153E-2</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1398">
+        <v>7.0146891101350306E-3</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1399">
+        <v>-4.0406463585940236E-3</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1400">
+        <v>2.9469245413844551E-3</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1401">
+        <v>-6.7731704503959378E-4</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1402">
+        <v>1.2216137534220021E-2</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1403">
+        <v>2.388606656204217E-3</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1404">
+        <v>4.9613063062858842E-3</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1405">
+        <v>5.8048610716268101E-3</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1406">
+        <v>-1.1463007614873179E-2</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1407">
+        <v>4.6340588349647049E-3</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1408">
+        <v>-5.5735757033570374E-3</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1409">
+        <v>-2.8564352244409008E-4</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1410">
+        <v>1.510454218326629E-3</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1411">
+        <v>1.1149148071952549E-2</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1412">
+        <v>2.8881452880238361E-3</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1413">
+        <v>-5.2691073057218318E-3</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1414">
+        <v>1.273947885041782E-2</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1415">
+        <v>6.7482628257469202E-3</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1416">
+        <v>1.6203991410099761E-3</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1417">
+        <v>1.6440478600286749E-2</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1418">
+        <v>-6.8734974374891067E-3</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1419">
+        <v>4.6889262612497262E-3</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1420">
+        <v>-2.161789523329993E-2</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1421">
+        <v>1.324624871108071E-2</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1422">
+        <v>7.168613905618848E-3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1423">
+        <v>-1.906362786607119E-2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1424">
+        <v>3.723193293265759E-3</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1425">
+        <v>-1.100897443447302E-2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1426">
+        <v>8.9766606603038923E-3</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1427">
+        <v>-1.1561886493708149E-2</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1428">
+        <v>2.0381565480018789E-3</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1429">
+        <v>3.7594962581932729E-3</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1430">
+        <v>3.784209435359287E-3</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1431">
+        <v>3.010761777999527E-3</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1435">
+        <v>5.3057033522838637E-3</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1436">
+        <v>7.2657390458461526E-3</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1439">
+        <v>-2.0790521659258761E-2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1440">
+        <v>1.493675807552108E-2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1441">
+        <v>9.3648680577960164E-3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1442">
+        <v>-4.8070512610438598E-3</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1443">
+        <v>9.5979921714217653E-3</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1444">
+        <v>1.116645197240107E-2</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1445">
+        <v>-7.1354424916618697E-3</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1446">
+        <v>1.395318409987745E-2</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1447">
+        <v>7.4331246172398826E-3</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1448">
+        <v>-7.6569167860895959E-4</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1449">
+        <v>6.5498469456777286E-3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1450">
+        <v>3.5815523568469838E-3</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1451">
+        <v>-2.557418402695077E-3</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1452">
+        <v>4.9001226011036181E-4</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1453">
+        <v>8.617524862607695E-3</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1454">
+        <v>3.512588725827825E-3</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1455">
+        <v>-1.8156916425772E-2</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1456">
+        <v>3.3204051138451258E-3</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1457">
+        <v>1.1865632619329601E-2</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1458">
+        <v>-1.0062777611356211E-2</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1459">
+        <v>6.8578003770802809E-3</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1460">
+        <v>6.314127987248952E-3</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1461">
+        <v>8.8490351949968016E-3</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1462">
+        <v>9.0669229880724345E-4</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1463">
+        <v>1.528609350086718E-2</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1464">
+        <v>3.2214095950280348E-3</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1465">
+        <v>1.163843404868814E-2</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1466">
+        <v>7.6760083722664518E-3</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1467">
+        <v>1.7970358456835811E-3</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1468">
+        <v>6.1101704203334606E-3</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1469">
+        <v>1.417801163168342E-2</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1470">
+        <v>-2.3639619187658671E-3</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1471">
+        <v>3.41963657443678E-3</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1472">
+        <v>-9.0801455157514255E-3</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1473">
+        <v>-6.7672431763607932E-3</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1474">
+        <v>-3.7308059189911091E-3</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1475">
+        <v>2.0934629135194172E-3</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1476">
+        <v>-7.2551936091080904E-3</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1477">
+        <v>1.64363683169686E-2</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1478">
+        <v>3.6058547704858061E-3</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1479">
+        <v>8.4571511799520493E-3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1480">
+        <v>-3.5325017372365148E-3</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1481">
+        <v>-7.0554530840283292E-4</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1482">
+        <v>2.6152981448262839E-2</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1483">
+        <v>9.0350497218949499E-3</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1484">
+        <v>6.2315618074997303E-3</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1485">
+        <v>6.7370553786627596E-3</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1486">
+        <v>2.1208605903701989E-3</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1487">
+        <v>1.219064213080046E-3</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1488">
+        <v>-1.4251674065558721E-2</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1489">
+        <v>-4.3198659224152891E-3</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1490">
+        <v>1.077075020050877E-2</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1491">
+        <v>-1.993123800604479E-2</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1492">
+        <v>-1.434222601506541E-2</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1493">
+        <v>4.8913643664274531E-3</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1494">
+        <v>-1.7913568941352761E-2</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1495">
+        <v>1.269688316514817E-2</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1496">
+        <v>4.2633377123095784E-3</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1497">
+        <v>2.1673630115362389E-2</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1498">
+        <v>1.8870118120251082E-2</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1499">
+        <v>-9.168976395129036E-3</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1502">
+        <v>-3.7787279783897183E-2</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1503">
+        <v>-2.1724716144762009E-2</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1504">
+        <v>5.8532699032198821E-4</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1505">
+        <v>6.9880575989103022E-3</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1506">
+        <v>3.2662690838133557E-2</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1507">
+        <v>-4.3892198964456952E-3</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1508">
+        <v>1.094605342023236E-2</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1509">
+        <v>-3.626439438326301E-3</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1510">
+        <v>-9.9943576173924242E-3</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1511">
+        <v>-6.5651702687077318E-3</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1512">
+        <v>2.1522464890466608E-2</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1513">
+        <v>-6.4673879546841562E-3</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1514">
+        <v>4.250797089525804E-3</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1515">
+        <v>-1.7849174523121289E-4</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1516">
+        <v>-9.8033405857211875E-3</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1517">
+        <v>6.1372212204542356E-3</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1518">
+        <v>5.3515956882819182E-3</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1519">
+        <v>8.759016042672485E-3</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1520">
+        <v>-1.152504739382465E-2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1521">
+        <v>4.5731990860709004E-3</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1522">
+        <v>1.556183795579358E-2</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1523">
+        <v>3.5635495428376629E-3</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1525">
+        <v>1.529505930173336E-2</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1526">
+        <v>2.1146439595058911E-2</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1527">
+        <v>-4.826968373961904E-3</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1528">
+        <v>-3.1244865574731051E-3</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1530">
+        <v>-1.199322413530268E-3</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1531">
+        <v>1.6819665845455131E-2</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1532">
+        <v>-9.4653852545238948E-3</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1533">
+        <v>8.1927076841843416E-3</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1534">
+        <v>-6.6318172107084914E-3</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1535">
+        <v>1.2363141475848489E-3</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1537">
+        <v>-1.497743036575727E-2</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1538">
+        <v>2.366408937424147E-2</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1539">
+        <v>-6.9567049050895946E-3</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1540">
+        <v>1.286080562114655E-2</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1541">
+        <v>1.3054582374181219E-2</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1542">
+        <v>-1.0579789772826591E-3</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1543">
+        <v>-1.0650084275960481E-2</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1544">
+        <v>2.4180744860533569E-3</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1545">
+        <v>-2.018653980956309E-2</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1546">
+        <v>9.4062402142007784E-3</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1547">
+        <v>1.6324157754636911E-2</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1548">
+        <v>-1.0948137036557171E-3</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1549">
+        <v>8.999282401809694E-3</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1550">
+        <v>4.3140810538169214E-3</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1551">
+        <v>-8.663208905220543E-3</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1552">
+        <v>6.9484468930092191E-4</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1553">
+        <v>1.9338066226382011E-4</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1554">
+        <v>1.76248955976952E-2</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1555">
+        <v>4.0616756752971384E-3</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1556">
+        <v>-6.2646705299407301E-4</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1557">
+        <v>-7.720351013947635E-3</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1558">
+        <v>2.517534147511213E-3</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1559">
+        <v>1.251994212446839E-2</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1560">
+        <v>2.9024220425348801E-3</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1561">
+        <v>-1.0547599354433499E-2</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1562">
+        <v>3.2703701386918031E-3</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1563">
+        <v>1.542126888678474E-2</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1564">
+        <v>1.675462850538878E-4</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1565">
+        <v>-2.6841150152598909E-3</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1566">
+        <v>-1.135846421495401E-2</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1567">
+        <v>1.7877985630121881E-2</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1568">
+        <v>8.4883474259314085E-3</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1569">
+        <v>1.849613265898142E-2</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1570">
+        <v>1.77519491337641E-3</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1571">
+        <v>1.424412265616049E-2</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1572">
+        <v>6.6596789340618301E-3</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1573">
+        <v>-7.7695741937411356E-4</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1574">
+        <v>-6.5573842089428069E-3</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1575">
+        <v>1.8242104877797871E-2</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1576">
+        <v>1.65256806849623E-2</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1577">
+        <v>-6.0614331711228431E-4</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1578">
+        <v>2.0090663395411209E-2</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1579">
+        <v>-4.694108956392995E-3</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1580">
+        <v>-1.7268014264065101E-2</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1581">
+        <v>1.9390956160005861E-3</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1582">
+        <v>3.7379908869144877E-2</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1583">
+        <v>2.0082541126882351E-2</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1584">
+        <v>-1.477281056836866E-2</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1585">
+        <v>1.105309179266278E-2</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1586">
+        <v>7.2438632430031902E-3</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1587">
+        <v>-5.1492481057415773E-3</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1588">
+        <v>1.8324800145425261E-2</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1589">
+        <v>-1.1989972363643631E-2</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1590">
+        <v>-1.5680046734157571E-2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1591">
+        <v>-7.9820042564477944E-3</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1592">
+        <v>5.4147154440862266E-3</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1593">
+        <v>8.8353886751075805E-3</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1594">
+        <v>1.451972830777137E-2</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1595">
+        <v>-1.9559616952774309E-2</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1596">
+        <v>-2.1117043716252231E-3</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1597">
+        <v>1.018530937804663E-2</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1598">
+        <v>-3.26104370770679E-2</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1599">
+        <v>-9.84995968626734E-3</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1600">
+        <v>-2.8513545203141529E-2</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1601">
+        <v>7.2565563471371775E-4</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1602">
+        <v>2.6576343482846099E-2</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1603">
+        <v>1.456487076791824E-2</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1604">
+        <v>-1.1143889403500751E-2</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1605">
+        <v>-2.764990880193707E-2</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1606">
+        <v>-3.27909693848305E-3</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1607">
+        <v>-2.0581982855727429E-2</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1608">
+        <v>-4.1824605248308439E-4</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1609">
+        <v>-2.3982511893448692E-2</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1610">
+        <v>5.720719381208994E-3</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1611">
+        <v>2.0708677833839669E-2</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1612">
+        <v>3.08718355892772E-2</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1613">
+        <v>-1.591112777689219E-2</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1614">
+        <v>7.6757828221971636E-3</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1615">
+        <v>-4.8291172486667477E-3</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1616">
+        <v>1.402831303126106E-2</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1617">
+        <v>-6.4814580766281438E-3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1618">
+        <v>-1.883101225687156E-2</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1619">
+        <v>-3.4799122471024901E-2</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1620">
+        <v>-2.4362289078828429E-2</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1621">
+        <v>1.9024489331515682E-2</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1622">
+        <v>3.2083227561454208E-2</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1623">
+        <v>-6.3393604074040164E-3</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1624">
+        <v>8.4269316210345835E-3</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1625">
+        <v>-5.2534833049229226E-3</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1626">
+        <v>2.8168017631116982E-2</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1627">
+        <v>-1.240746463189168E-3</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1628">
+        <v>1.435958443199681E-2</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1629">
+        <v>-1.1148533324218951E-2</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1630">
+        <v>7.3204032721161383E-3</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1631">
+        <v>-4.5009474151260784E-3</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1632">
+        <v>9.2778075885728839E-3</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1633">
+        <v>2.5682492410872729E-2</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1634">
+        <v>7.4802299144671736E-4</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1636">
+        <v>1.4007761175280461E-2</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1637">
+        <v>-3.524179680299611E-3</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1638">
+        <v>-1.0195308238063919E-2</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1639">
+        <v>-2.0712634891109971E-2</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1640">
+        <v>-3.6670726356291539E-3</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1641">
+        <v>1.445812913081568E-2</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1642">
+        <v>-2.379007105091091E-3</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1643">
+        <v>-1.111911119987496E-2</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1644">
+        <v>-4.4959888393893976E-3</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1645">
+        <v>-2.4579604749217051E-2</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1646">
+        <v>4.9492550903202934E-3</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1647">
+        <v>2.504947930444246E-2</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1648">
+        <v>-1.147610677716138E-2</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1649">
+        <v>-3.6660222148629629E-2</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1650">
+        <v>1.271705236341347E-3</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1651">
+        <v>-2.8029947223384259E-2</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1652">
+        <v>-6.0067967723997029E-2</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1653">
+        <v>4.320651628765404E-2</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1654">
+        <v>-1.52950355388537E-2</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1655">
+        <v>1.2742352981156559E-3</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1656">
+        <v>2.4752000017524981E-2</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1657">
+        <v>-1.6490318686720681E-2</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1658">
+        <v>1.484123493284706E-2</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1659">
+        <v>-7.1872366153318268E-3</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1660">
+        <v>-2.6166082692123279E-2</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1661">
+        <v>3.4901798653415028E-3</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1662">
+        <v>1.720451278968582E-3</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1663">
+        <v>-1.004008557648994E-2</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1664">
+        <v>1.205500036519425E-3</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1665">
+        <v>-6.8549950690748318E-3</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1666">
+        <v>3.7386783484018693E-2</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1667">
+        <v>7.1611158607840508E-3</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1668">
+        <v>8.4859543768569523E-3</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1669">
+        <v>1.4064014435378519E-2</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1670">
+        <v>2.565497767170299E-3</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1671">
+        <v>-2.8252421618145011E-2</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1672">
+        <v>4.6965554733926504E-3</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1673">
+        <v>1.9748438850141881E-2</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1674">
+        <v>8.8834261892678512E-3</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1675">
+        <v>2.5485106526836891E-3</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1676">
+        <v>3.7999138255106153E-2</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1677">
+        <v>-7.1804860029693876E-3</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1678">
+        <v>-5.3482280719521214E-3</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1679">
+        <v>2.0687453168406481E-2</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1680">
+        <v>7.6848572484777833E-3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1681">
+        <v>3.888123279876865E-3</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1682">
+        <v>-5.0052098055406447E-3</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1683">
+        <v>-1.6963663499327101E-2</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1684">
+        <v>-2.4591201549778671E-2</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1685">
+        <v>1.119263635030876E-2</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1686">
+        <v>-8.1152442838519079E-3</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1687">
+        <v>2.964496819220663E-2</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1688">
+        <v>1.0259029326444851E-3</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1689">
+        <v>2.0078179366951332E-3</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1690">
+        <v>-2.617975408111484E-2</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1691">
+        <v>1.7159923273510461E-2</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1692">
+        <v>1.7558033797513419E-3</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1696">
+        <v>3.1728584581248498E-2</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1697">
+        <v>-9.8277416614678259E-3</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1700">
+        <v>3.2608825896009108E-2</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1701">
+        <v>1.198702014468722E-2</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1702">
+        <v>-1.296588746483884E-2</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1703">
+        <v>-4.6137853783321248E-3</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1704">
+        <v>-1.073488177813609E-2</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1705">
+        <v>-1.3102390012168289E-2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1706">
+        <v>-2.46322049995733E-2</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1707">
+        <v>3.7104808613719338E-3</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1708">
+        <v>-1.109045828057376E-3</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1709">
+        <v>-1.252771528243102E-3</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1710">
+        <v>1.819480909308524E-2</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1711">
+        <v>1.7354652268618761E-2</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1712">
+        <v>4.8320730977646784E-3</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1713">
+        <v>-1.410089592423525E-2</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1714">
+        <v>-2.7564322384492361E-3</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1715">
+        <v>-3.9262873792687003E-3</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1716">
+        <v>1.0409471386930489E-2</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1717">
+        <v>1.15843153031232E-2</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1718">
+        <v>1.591512605742729E-2</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1719">
+        <v>1.34183684054836E-2</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1720">
+        <v>-4.5009261415174251E-4</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1721">
+        <v>1.9471415099564741E-2</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1722">
+        <v>-1.5454142072002239E-4</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1723">
+        <v>-4.4100650889582482E-3</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1724">
+        <v>-3.227468019707302E-3</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1725">
+        <v>9.3427890399802038E-3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1726">
+        <v>-3.8315196153941859E-3</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1727">
+        <v>8.6053021721195222E-3</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1728">
+        <v>-1.3521999452539291E-3</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1729">
+        <v>-9.5102920215417441E-3</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1730">
+        <v>2.8897946213586319E-3</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1731">
+        <v>2.9013111570748151E-3</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1732">
+        <v>2.0050917406811308E-2</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1733">
+        <v>-3.4115984028471051E-3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1734">
+        <v>-6.6531007727199656E-3</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1735">
+        <v>4.2557324812264602E-4</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1736">
+        <v>6.0106623531606118E-3</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1737">
+        <v>-1.3260687266694049E-3</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1738">
+        <v>2.1491557252650399E-2</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1739">
+        <v>-1.872269268542226E-3</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1740">
+        <v>-4.089613716313778E-4</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1741">
+        <v>1.852412954436744E-2</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1742">
+        <v>-4.611568095693741E-3</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1743">
+        <v>-1.462438261129151E-2</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1744">
+        <v>-3.0105905770287929E-3</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1745">
+        <v>1.8283974033378669E-2</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1746">
+        <v>1.3799793619803319E-2</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1747">
+        <v>4.819704592160079E-3</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1748">
+        <v>2.0978675950029668E-3</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1749">
+        <v>-4.8943101983525139E-3</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1750">
+        <v>6.9139007005638584E-3</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1751">
+        <v>6.8215809285998574E-3</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1752">
+        <v>8.1856012045715687E-3</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1753">
+        <v>-7.5823899013389706E-3</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1754">
+        <v>8.3908120872404623E-3</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1755">
+        <v>1.905997327443032E-2</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1756">
+        <v>-6.1694410682928691E-3</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1757">
+        <v>9.9658709741134999E-3</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1758">
+        <v>9.7814991830738052E-3</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1759">
+        <v>-1.6786139770623269E-2</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1760">
+        <v>7.5080335654824637E-3</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1761">
+        <v>5.8993035994880927E-4</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1762">
+        <v>5.3820574996876758E-3</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1763">
+        <v>7.4468221312216087E-3</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1764">
+        <v>8.4717101645050974E-3</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1765">
+        <v>1.443088447438079E-2</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1766">
+        <v>1.727744598829517E-2</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1767">
+        <v>-6.7983549433545676E-3</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1768">
+        <v>-8.0022966461328338E-3</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1769">
+        <v>8.4880845358430435E-3</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1772">
+        <v>1.0436199560320601E-2</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1773">
+        <v>-1.6294998953902959E-3</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1774">
+        <v>-1.2442648988061579E-2</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1775">
+        <v>6.339243045248466E-3</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1776">
+        <v>1.514762682808701E-2</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1777">
+        <v>-6.3311015954248262E-3</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1778">
+        <v>-1.151417164614443E-2</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1779">
+        <v>-9.4016210455976079E-3</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1780">
+        <v>-2.2706868457932568E-2</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1781">
+        <v>-2.7932866519657651E-2</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1782">
+        <v>2.1391835134082271E-2</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1783">
+        <v>-5.3125872888966086E-3</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1784">
+        <v>3.0497190161602461E-2</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1786">
+        <v>1.82480122534141E-2</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1787">
+        <v>-2.1119779311694838E-2</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1788">
+        <v>7.3245316887167178E-3</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1789">
+        <v>-1.9125163090205181E-2</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1790">
+        <v>2.026230022825715E-2</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1791">
+        <v>1.4716783368461611E-2</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1792">
+        <v>-7.6816839315405616E-3</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1793">
+        <v>1.201721233781505E-2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1794">
+        <v>3.9456175310093039E-4</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1795">
+        <v>7.4524696028692716E-3</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1796">
+        <v>-1.313463705529294E-2</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1797">
+        <v>1.805205604794757E-2</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1798">
+        <v>1.341993265966579E-2</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1800">
+        <v>2.8393728275819541E-3</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1801">
+        <v>1.119708892923477E-2</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1802">
+        <v>8.4452998534008117E-3</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1803">
+        <v>-3.1156491982816451E-2</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1804">
+        <v>7.3773096984357522E-3</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1805">
+        <v>8.9712152747516427E-3</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1807">
+        <v>4.8183261065215532E-3</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1808">
+        <v>1.0083609951898611E-2</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1809">
+        <v>-6.231679986257177E-3</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1810">
+        <v>2.1072029528346189E-2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1811">
+        <v>1.082378224512048E-2</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1812">
+        <v>-2.2974158997577381E-3</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1813">
+        <v>4.3981790402209953E-3</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1815">
+        <v>-2.9376001261386619E-2</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1816">
+        <v>-8.9364505610074474E-3</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1817">
+        <v>7.2249141596216759E-3</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1818">
+        <v>2.1316232102970289E-2</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1819">
+        <v>-9.261204400649703E-3</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1820">
+        <v>-8.0589031115945176E-3</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1821">
+        <v>6.8896324387779373E-4</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1822">
+        <v>1.759014155450522E-2</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1823">
+        <v>6.2535212820282737E-3</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1824">
+        <v>1.7534327730812649E-2</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1825">
+        <v>-2.76086083505156E-3</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1826">
+        <v>1.071491467362762E-2</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1827">
+        <v>-1.5608916409158621E-2</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1828">
+        <v>1.168801819237153E-2</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1829">
+        <v>-9.0727058288386786E-4</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1830">
+        <v>9.4888885497734776E-3</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1831">
+        <v>-3.2578654783250731E-3</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1832">
+        <v>5.6754927079527562E-3</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1833">
+        <v>7.1714896299752704E-3</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1834">
+        <v>-3.0033975086247722E-3</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1835">
+        <v>6.6655113137414901E-5</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1836">
+        <v>3.6708275623986708E-3</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1837">
+        <v>1.296325598620029E-2</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1838">
+        <v>6.8807342164234342E-4</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1839">
+        <v>3.111158440365358E-4</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1840">
+        <v>8.9415681560662819E-3</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1841">
+        <v>3.7622676261612749E-3</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1842">
+        <v>-3.2174122097750057E-4</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1843">
+        <v>-1.6794236813192139E-2</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1844">
+        <v>-6.1509827390189287E-3</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1845">
+        <v>-5.3622853888235511E-4</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1846">
+        <v>-3.1315059165066828E-2</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1847">
+        <v>2.247082682488966E-3</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1848">
+        <v>-6.6312038387543737E-3</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1849">
+        <v>1.322380363651909E-2</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1850">
+        <v>-7.6720024967134037E-3</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1851">
+        <v>-1.4921763307940591E-2</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1852">
+        <v>-9.6893845030017189E-3</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1853">
+        <v>-1.834088119232646E-2</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1854">
+        <v>-1.5552831741942439E-2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1855">
+        <v>1.261875883229813E-2</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1856">
+        <v>-2.4939011497513871E-2</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1857">
+        <v>-3.2507345290527567E-2</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1858">
+        <v>1.895730976767496E-2</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1859">
+        <v>-5.9411995868199341E-3</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1860">
+        <v>2.192215229017869E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93B265-0B5C-4BC2-87FA-C58883209CBE}">
   <sheetPr codeName="Hoja11"/>
   <dimension ref="A1:J169"/>
@@ -15021,12 +24505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFBA96F-14A5-48C0-B655-9F848906A67D}">
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
